--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526D514-332E-9B4A-9372-3EE586ADC1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F76AAC-8B74-AF46-B525-AD238042C908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -233,10 +233,10 @@
     <t xml:space="preserve">1. Steering Stem needs replacement. 2. Oil leak from Cylinder head cover </t>
   </si>
   <si>
-    <t>1. Steering Stem needs bearings.</t>
-  </si>
-  <si>
     <t>MK81DTGP</t>
+  </si>
+  <si>
+    <t>1. Steering Stem needs bearings. 2. Ignition faulty open to all keys</t>
   </si>
 </sst>
 </file>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD8F41E-515C-324C-BF16-60C17361A01E}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1081,10 +1081,10 @@
         <v>27</v>
       </c>
       <c r="C22" s="12">
-        <v>81224</v>
+        <v>84067</v>
       </c>
       <c r="D22" s="12">
-        <v>84000</v>
+        <v>87000</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" t="s">
@@ -1578,7 +1578,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="5">
         <v>0</v>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F76AAC-8B74-AF46-B525-AD238042C908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01E8F6C-6A01-7F47-8896-A971F5BA4415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>No.</t>
   </si>
@@ -89,9 +89,6 @@
     <t>LV14GBGP</t>
   </si>
   <si>
-    <t>LD90DTGP</t>
-  </si>
-  <si>
     <t>LL74SSGP</t>
   </si>
   <si>
@@ -237,6 +234,15 @@
   </si>
   <si>
     <t>1. Steering Stem needs bearings. 2. Ignition faulty open to all keys</t>
+  </si>
+  <si>
+    <t>1. Transmission noise -2211A-F6C-0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>,.,.</t>
   </si>
 </sst>
 </file>
@@ -721,10 +727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD8F41E-515C-324C-BF16-60C17361A01E}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -733,8 +742,8 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="71.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="67.5" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" hidden="1"/>
@@ -785,15 +794,15 @@
         <v>7</v>
       </c>
       <c r="C3" s="5">
-        <v>24012</v>
+        <v>27076</v>
       </c>
       <c r="D3" s="5">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="G3" s="8"/>
       <c r="H3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.35">
@@ -823,10 +832,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="5">
-        <v>6002</v>
+        <v>8669</v>
       </c>
       <c r="D5" s="5">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -838,10 +847,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="5">
-        <v>9000</v>
+        <v>11979</v>
       </c>
       <c r="D6" s="5">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -879,14 +888,14 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5">
-        <v>35896</v>
-      </c>
-      <c r="D9" s="5">
-        <v>39000</v>
+      <c r="C9" s="12">
+        <v>39035</v>
+      </c>
+      <c r="D9" s="12">
+        <v>42000</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -913,10 +922,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="5">
-        <v>15264</v>
+        <v>18479</v>
       </c>
       <c r="D11" s="5">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -925,13 +934,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5">
-        <v>35943</v>
+        <v>68</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="5">
-        <v>39000</v>
+        <v>42000</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -940,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
-        <v>26993</v>
+        <v>29977</v>
       </c>
       <c r="D13" s="5">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -955,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5">
         <v>12036</v>
@@ -970,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5">
         <v>27093</v>
@@ -985,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="12">
-        <v>44993</v>
+        <v>48050</v>
       </c>
       <c r="D16" s="12">
-        <v>48000</v>
+        <v>51000</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1000,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="12">
         <v>48182</v>
@@ -1015,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="12">
         <v>41963</v>
@@ -1030,7 +1039,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="12">
         <v>41772</v>
@@ -1040,7 +1049,7 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1048,7 +1057,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5">
         <v>30132</v>
@@ -1063,7 +1072,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5">
         <v>30106</v>
@@ -1078,7 +1087,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="12">
         <v>84067</v>
@@ -1088,7 +1097,7 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1096,7 +1105,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5">
         <v>23989</v>
@@ -1111,7 +1120,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5">
         <v>20635</v>
@@ -1126,7 +1135,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="12">
         <v>39146</v>
@@ -1141,7 +1150,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="5">
         <v>32941</v>
@@ -1156,7 +1165,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5">
         <v>12052</v>
@@ -1171,7 +1180,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5">
         <v>12111</v>
@@ -1186,7 +1195,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5">
         <v>23763</v>
@@ -1201,7 +1210,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="12">
         <v>51013</v>
@@ -1216,7 +1225,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5">
         <v>38946</v>
@@ -1231,7 +1240,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5">
         <v>26836</v>
@@ -1246,7 +1255,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="12">
         <v>41900</v>
@@ -1261,7 +1270,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="12">
         <v>42033</v>
@@ -1270,13 +1279,16 @@
         <v>45000</v>
       </c>
       <c r="E34" s="3"/>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="14">
         <v>48107</v>
@@ -1285,10 +1297,10 @@
         <v>51000</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1296,7 +1308,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="5">
         <v>32994</v>
@@ -1311,7 +1323,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="12">
         <v>45126</v>
@@ -1326,7 +1338,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="5">
         <v>8913</v>
@@ -1340,7 +1352,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="5">
         <v>14654</v>
@@ -1354,7 +1366,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="5">
         <v>6116</v>
@@ -1368,7 +1380,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="5">
         <v>3166</v>
@@ -1382,7 +1394,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="5">
         <v>5934</v>
@@ -1396,13 +1408,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="5">
-        <v>1139</v>
+        <v>3024</v>
       </c>
       <c r="D43" s="5">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1410,7 +1422,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="5">
         <v>9031</v>
@@ -1424,13 +1436,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="5">
-        <v>960</v>
+        <v>2991</v>
       </c>
       <c r="D45" s="5">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1438,13 +1450,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="5">
-        <v>3248</v>
+        <v>6335</v>
       </c>
       <c r="D46" s="5">
-        <v>6000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1452,7 +1464,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="5">
         <v>1006</v>
@@ -1466,13 +1478,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="5">
-        <v>3593</v>
+        <v>6117</v>
       </c>
       <c r="D48" s="5">
-        <v>6000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="27" x14ac:dyDescent="0.35">
@@ -1480,7 +1492,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="5">
         <v>2930</v>
@@ -1494,7 +1506,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="5">
         <v>3063</v>
@@ -1508,7 +1520,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="5">
         <v>3011</v>
@@ -1522,13 +1534,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="5">
-        <v>1057</v>
+        <v>3088</v>
       </c>
       <c r="D52" s="5">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="27" x14ac:dyDescent="0.35">
@@ -1536,13 +1548,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="5">
-        <v>1181</v>
+        <v>3071</v>
       </c>
       <c r="D53" s="5">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="27" x14ac:dyDescent="0.35">
@@ -1550,7 +1562,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="5">
         <v>955</v>
@@ -1564,7 +1576,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="5">
         <v>3328</v>
@@ -1578,7 +1590,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="5">
         <v>0</v>
@@ -1592,24 +1604,6 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="7:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.2"/>
-    <row r="84" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01E8F6C-6A01-7F47-8896-A971F5BA4415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43252C45-CC13-A04F-94A9-9CBFD269FC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>No.</t>
   </si>
@@ -239,10 +239,7 @@
     <t>1. Transmission noise -2211A-F6C-0002</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>,.,.</t>
+    <t>LD90DTGP</t>
   </si>
 </sst>
 </file>
@@ -730,10 +727,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -907,10 +904,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="5">
-        <v>5400</v>
+        <v>9017</v>
       </c>
       <c r="D10" s="5">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -934,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="5" t="s">
         <v>67</v>
+      </c>
+      <c r="C12" s="5">
+        <v>39013</v>
       </c>
       <c r="D12" s="5">
         <v>42000</v>
@@ -1467,10 +1464,10 @@
         <v>51</v>
       </c>
       <c r="C47" s="5">
-        <v>1006</v>
+        <v>3093</v>
       </c>
       <c r="D47" s="5">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1509,10 +1506,10 @@
         <v>54</v>
       </c>
       <c r="C50" s="5">
-        <v>3063</v>
+        <v>6131</v>
       </c>
       <c r="D50" s="5">
-        <v>6000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="27" x14ac:dyDescent="0.35">

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43252C45-CC13-A04F-94A9-9CBFD269FC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2952C-6BD1-294F-95C5-7D4432DACBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -727,10 +727,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1352,10 +1352,10 @@
         <v>43</v>
       </c>
       <c r="C39" s="5">
-        <v>14654</v>
+        <v>18038</v>
       </c>
       <c r="D39" s="5">
-        <v>18000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.35">

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2952C-6BD1-294F-95C5-7D4432DACBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E6814-63A4-754E-A084-4702D998203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -727,10 +727,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1576,10 +1576,10 @@
         <v>59</v>
       </c>
       <c r="C55" s="5">
-        <v>3328</v>
+        <v>6001</v>
       </c>
       <c r="D55" s="5">
-        <v>6000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="27" x14ac:dyDescent="0.35">

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E6814-63A4-754E-A084-4702D998203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEFAA32-3D0C-A54B-B6A9-E4C428F8D0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -727,10 +727,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1308,10 +1308,10 @@
         <v>40</v>
       </c>
       <c r="C36" s="5">
-        <v>32994</v>
+        <v>36030</v>
       </c>
       <c r="D36" s="5">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="E36" s="3"/>
     </row>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEFAA32-3D0C-A54B-B6A9-E4C428F8D0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACA1039-31F6-0E46-865F-E0F6DC99F363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>No.</t>
   </si>
@@ -218,9 +218,6 @@
     <t>MG15RPGP</t>
   </si>
   <si>
-    <t>Still in Fleet &amp; To be considered for retirement</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -240,6 +237,15 @@
   </si>
   <si>
     <t>LD90DTGP</t>
+  </si>
+  <si>
+    <t>1. High fuel &amp; Oil consumption</t>
+  </si>
+  <si>
+    <t>Vehicle is still in the fleet and approaching high mileage</t>
+  </si>
+  <si>
+    <t>Recommended for Retirement</t>
   </si>
 </sst>
 </file>
@@ -250,7 +256,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,8 +318,22 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +355,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -389,6 +415,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -727,10 +760,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -741,7 +774,7 @@
     <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="13" customWidth="1"/>
     <col min="6" max="6" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="67.5" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" hidden="1"/>
   </cols>
@@ -797,9 +830,9 @@
         <v>30000</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7" t="s">
-        <v>60</v>
+      <c r="G3" s="17"/>
+      <c r="H3" s="19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.35">
@@ -816,9 +849,9 @@
         <v>9000</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
+      <c r="G4" s="8"/>
+      <c r="H4" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.35">
@@ -835,6 +868,10 @@
         <v>12000</v>
       </c>
       <c r="E5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -885,13 +922,13 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>39035</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="16">
         <v>42000</v>
       </c>
       <c r="E9" s="3"/>
@@ -931,7 +968,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5">
         <v>39013</v>
@@ -1020,13 +1057,13 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="16">
         <v>41963</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="16">
         <v>45000</v>
       </c>
       <c r="E18" s="3"/>
@@ -1046,7 +1083,7 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1072,10 +1109,10 @@
         <v>25</v>
       </c>
       <c r="C21" s="5">
-        <v>30106</v>
+        <v>32981</v>
       </c>
       <c r="D21" s="5">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -1087,14 +1124,14 @@
         <v>26</v>
       </c>
       <c r="C22" s="12">
-        <v>84067</v>
+        <v>87033</v>
       </c>
       <c r="D22" s="12">
-        <v>87000</v>
+        <v>90000</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1131,13 +1168,13 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="5">
         <v>39146</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="5">
         <v>42000</v>
       </c>
       <c r="E25" s="3"/>
@@ -1251,13 +1288,13 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="16">
         <v>41900</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="16">
         <v>45000</v>
       </c>
       <c r="E33" s="3"/>
@@ -1277,7 +1314,7 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1294,10 +1331,10 @@
         <v>51000</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1329,6 +1366,9 @@
         <v>48000</v>
       </c>
       <c r="E37" s="3"/>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -1548,10 +1588,10 @@
         <v>57</v>
       </c>
       <c r="C53" s="5">
-        <v>3071</v>
+        <v>5937</v>
       </c>
       <c r="D53" s="5">
-        <v>6000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="27" x14ac:dyDescent="0.35">
@@ -1587,7 +1627,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="5">
         <v>0</v>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACA1039-31F6-0E46-865F-E0F6DC99F363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5735885E-4580-AB48-8CBF-DB47979B3B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -760,10 +760,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1001,10 +1001,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="5">
-        <v>12036</v>
+        <v>15012</v>
       </c>
       <c r="D14" s="5">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1076,10 +1076,10 @@
         <v>23</v>
       </c>
       <c r="C19" s="12">
-        <v>41772</v>
+        <v>44661</v>
       </c>
       <c r="D19" s="12">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" t="s">

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5735885E-4580-AB48-8CBF-DB47979B3B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EA7169-7B68-194D-B9D1-8E2BA69D0C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -393,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,6 +422,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -763,7 +766,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1171,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="5">
@@ -1187,10 +1190,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="5">
-        <v>32941</v>
+        <v>35531</v>
       </c>
       <c r="D26" s="5">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -1434,10 +1437,10 @@
         <v>46</v>
       </c>
       <c r="C42" s="5">
-        <v>5934</v>
+        <v>9030</v>
       </c>
       <c r="D42" s="5">
-        <v>9000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.35">
@@ -1532,10 +1535,10 @@
         <v>53</v>
       </c>
       <c r="C49" s="5">
-        <v>2930</v>
+        <v>6072</v>
       </c>
       <c r="D49" s="5">
-        <v>6000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="27" x14ac:dyDescent="0.35">
@@ -1630,10 +1633,10 @@
         <v>63</v>
       </c>
       <c r="C56" s="5">
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="D56" s="5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EA7169-7B68-194D-B9D1-8E2BA69D0C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3A03DF-80C4-9643-BBF7-D851C14057BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -393,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,9 +422,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -763,10 +760,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1171,13 +1168,13 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="16">
         <v>39146</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="16">
         <v>42000</v>
       </c>
       <c r="E25" s="3"/>
@@ -1261,14 +1258,14 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="5">
-        <v>38946</v>
-      </c>
-      <c r="D31" s="5">
-        <v>42000</v>
+      <c r="C31" s="16">
+        <v>41969</v>
+      </c>
+      <c r="D31" s="16">
+        <v>45000</v>
       </c>
       <c r="E31" s="3"/>
     </row>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3A03DF-80C4-9643-BBF7-D851C14057BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65485CF-E8CC-A345-B8C3-BEBB17063718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -760,10 +760,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1046,10 +1046,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="12">
-        <v>48182</v>
+        <v>51000</v>
       </c>
       <c r="D17" s="12">
-        <v>51000</v>
+        <v>54000</v>
       </c>
       <c r="E17" s="3"/>
     </row>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65485CF-E8CC-A345-B8C3-BEBB17063718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001D07C7-ACEE-614E-8D58-B9180EC92562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -760,10 +760,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -967,14 +967,14 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="5">
-        <v>39013</v>
-      </c>
-      <c r="D12" s="5">
-        <v>42000</v>
+      <c r="C12" s="12">
+        <v>42022</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45000</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -1057,13 +1057,13 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="12">
         <v>41963</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="12">
         <v>45000</v>
       </c>
       <c r="E18" s="3"/>
@@ -1258,13 +1258,13 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="12">
         <v>41969</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="12">
         <v>45000</v>
       </c>
       <c r="E31" s="3"/>
@@ -1288,13 +1288,13 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="12">
         <v>41900</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="12">
         <v>45000</v>
       </c>
       <c r="E33" s="3"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001D07C7-ACEE-614E-8D58-B9180EC92562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E98C5-FA14-8E4E-B8BD-7455BED8CF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>No.</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Recommended for Retirement</t>
+  </si>
+  <si>
+    <t>1. Not Charging</t>
   </si>
 </sst>
 </file>
@@ -393,35 +396,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -760,10 +797,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -772,875 +809,1050 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="67.5" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>11631</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>15000</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>27076</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>30000</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="19" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>6019</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>9000</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>8669</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>12000</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>11979</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>15000</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <v>14589</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>18000</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>14991</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>18000</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="18">
         <v>39035</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="18">
         <v>42000</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>9017</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>12000</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>18479</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>21000</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="2">
         <v>42022</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="2">
         <v>45000</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>29977</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>33000</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>15012</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>18000</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <v>27093</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>30000</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="2">
         <v>48050</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="2">
         <v>51000</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="2">
         <v>51000</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="2">
         <v>54000</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="E17" s="5"/>
+      <c r="F17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="2">
         <v>41963</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="2">
         <v>45000</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="2">
         <v>44661</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="2">
         <v>48000</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>30132</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="8">
         <v>33000</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="8">
         <v>32981</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <v>36000</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="2">
         <v>87033</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="2">
         <v>90000</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="8">
         <v>23989</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="8">
         <v>27000</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <v>20635</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="8">
         <v>24000</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="18">
         <v>39146</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="18">
         <v>42000</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <v>35531</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="8">
         <v>39000</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="8">
         <v>12052</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="8">
         <v>15000</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="8">
         <v>12111</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="8">
         <v>15000</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="8">
         <v>23763</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="8">
         <v>27000</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="2">
         <v>51013</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="2">
         <v>54000</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="2">
         <v>41969</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="2">
         <v>45000</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="8">
         <v>26836</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="8">
         <v>30000</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="2">
         <v>41900</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="2">
         <v>45000</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="2">
         <v>42033</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="2">
         <v>45000</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="20">
         <v>48107</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="20">
         <v>51000</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="8">
         <v>36030</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="8">
         <v>39000</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="2">
         <v>45126</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="2">
         <v>48000</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="8">
         <v>8913</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="8">
         <v>12000</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="E38" s="21"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="8">
         <v>18038</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="8">
         <v>21000</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="E39" s="21"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="8">
         <v>6116</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="8">
         <v>9000</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="E40" s="21"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="8">
         <v>3166</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="8">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="E41" s="21"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="8">
         <v>9030</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="8">
         <v>12000</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="E42" s="21"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="8">
         <v>3024</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="8">
         <v>6000</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="E43" s="21"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="8">
         <v>9031</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="8">
         <v>12000</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="E44" s="21"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="8">
         <v>2991</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="8">
         <v>6000</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="E45" s="21"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="8">
         <v>6335</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="8">
         <v>9000</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="E46" s="21"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="8">
         <v>3093</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="8">
         <v>6000</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="E47" s="21"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="8">
         <v>6117</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="8">
         <v>9000</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="E48" s="21"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="8">
         <v>6072</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="8">
         <v>9000</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="E49" s="21"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="8">
         <v>6131</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="8">
         <v>9000</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="E50" s="21"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="8">
         <v>3011</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="8">
         <v>6000</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="E51" s="21"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="8">
         <v>3088</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="8">
         <v>6000</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="E52" s="21"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="8">
         <v>5937</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="8">
         <v>9000</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="E53" s="21"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="8">
         <v>955</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="8">
         <v>3000</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="E54" s="21"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="8">
         <v>6001</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="8">
         <v>9000</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="E55" s="21"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="8">
         <v>1099</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="8">
         <v>3000</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E98C5-FA14-8E4E-B8BD-7455BED8CF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E2160-7087-CE45-A84F-09F5514FAADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -797,10 +797,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1050,10 +1050,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="8">
-        <v>29977</v>
+        <v>32998</v>
       </c>
       <c r="D13" s="8">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -1550,10 +1550,10 @@
         <v>44</v>
       </c>
       <c r="C40" s="8">
-        <v>6116</v>
+        <v>9296</v>
       </c>
       <c r="D40" s="8">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="6"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E2160-7087-CE45-A84F-09F5514FAADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5AE196-B987-4D49-9927-535A24D920EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -797,10 +797,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1104,10 +1104,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="2">
-        <v>48050</v>
+        <v>51269</v>
       </c>
       <c r="D16" s="2">
-        <v>51000</v>
+        <v>54000</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
@@ -1802,10 +1802,10 @@
         <v>58</v>
       </c>
       <c r="C54" s="8">
-        <v>955</v>
+        <v>5991</v>
       </c>
       <c r="D54" s="8">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="6"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A202B188-30B2-2A49-AC62-35996D735C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF069660-3376-8047-9DBF-DD24AB53A81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -815,10 +815,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -902,10 +902,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="20">
-        <v>6019</v>
+        <v>9120</v>
       </c>
       <c r="D4" s="20">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF069660-3376-8047-9DBF-DD24AB53A81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEDCE83-33AE-EC40-AB25-2F3AA6890A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>No.</t>
   </si>
@@ -116,9 +116,6 @@
     <t>KP13RNGP</t>
   </si>
   <si>
-    <t>KP87PJGP</t>
-  </si>
-  <si>
     <t>KP13YTGP</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>KS92FCGP</t>
   </si>
   <si>
-    <t>KS93ZWGP</t>
-  </si>
-  <si>
     <t>KS92GWGP</t>
   </si>
   <si>
@@ -216,15 +210,6 @@
   </si>
   <si>
     <t>MG15RPGP</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Steering Stem needs replacement.  2.Top Box hinges brocken.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Steering Stem needs replacement. 2. Oil leak from Cylinder head cover </t>
   </si>
   <si>
     <t>MK81DTGP</t>
@@ -271,7 +256,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,13 +309,6 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -432,13 +410,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -453,14 +431,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -815,18 +787,18 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
@@ -841,10 +813,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
@@ -861,10 +833,10 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="18">
         <v>11631</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>15000</v>
       </c>
       <c r="E2" s="3"/>
@@ -881,17 +853,17 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>27076</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>30000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.35">
@@ -901,17 +873,17 @@
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>9120</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>12000</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.35">
@@ -921,10 +893,10 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>8669</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>12000</v>
       </c>
       <c r="E5" s="12"/>
@@ -941,10 +913,10 @@
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>11979</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>15000</v>
       </c>
       <c r="E6" s="3"/>
@@ -959,10 +931,10 @@
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>14589</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>18000</v>
       </c>
       <c r="E7" s="3"/>
@@ -977,10 +949,10 @@
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>14991</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>18000</v>
       </c>
       <c r="E8" s="3"/>
@@ -995,10 +967,10 @@
       <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>39035</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>42000</v>
       </c>
       <c r="E9" s="3"/>
@@ -1013,15 +985,15 @@
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>9017</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>12000</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1033,10 +1005,10 @@
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>21322</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>24000</v>
       </c>
       <c r="E11" s="3"/>
@@ -1049,12 +1021,12 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="22">
+        <v>61</v>
+      </c>
+      <c r="C12" s="20">
         <v>42022</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <v>45000</v>
       </c>
       <c r="E12" s="3"/>
@@ -1069,10 +1041,10 @@
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>32998</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>36000</v>
       </c>
       <c r="E13" s="3"/>
@@ -1087,10 +1059,10 @@
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>15012</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <v>18000</v>
       </c>
       <c r="E14" s="3"/>
@@ -1105,10 +1077,10 @@
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>27093</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>30000</v>
       </c>
       <c r="E15" s="3"/>
@@ -1123,10 +1095,10 @@
       <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="20">
         <v>51269</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="20">
         <v>54000</v>
       </c>
       <c r="E16" s="3"/>
@@ -1141,15 +1113,15 @@
       <c r="B17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="20">
         <v>51000</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="20">
         <v>54000</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1161,10 +1133,10 @@
       <c r="B18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <v>41963</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="20">
         <v>45000</v>
       </c>
       <c r="E18" s="3"/>
@@ -1179,15 +1151,15 @@
       <c r="B19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="20">
         <v>44661</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <v>48000</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1199,15 +1171,15 @@
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="18">
         <v>30132</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="18">
         <v>33000</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1219,15 +1191,15 @@
       <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>32981</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="18">
         <v>36000</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1236,21 +1208,17 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="18">
-        <v>87033</v>
+        <v>23989</v>
       </c>
       <c r="D22" s="18">
-        <v>90000</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>27000</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -1261,10 +1229,10 @@
       <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="20">
-        <v>23989</v>
-      </c>
-      <c r="D23" s="20">
+      <c r="C23" s="18">
+        <v>24091</v>
+      </c>
+      <c r="D23" s="18">
         <v>27000</v>
       </c>
       <c r="E23" s="3"/>
@@ -1276,14 +1244,14 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="20">
-        <v>24091</v>
-      </c>
-      <c r="D24" s="20">
-        <v>27000</v>
+      <c r="C24" s="19">
+        <v>39146</v>
+      </c>
+      <c r="D24" s="19">
+        <v>42000</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
@@ -1294,14 +1262,14 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="21">
-        <v>39146</v>
-      </c>
-      <c r="D25" s="21">
-        <v>42000</v>
+      <c r="C25" s="18">
+        <v>35531</v>
+      </c>
+      <c r="D25" s="18">
+        <v>39000</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
@@ -1315,11 +1283,11 @@
       <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="20">
-        <v>35531</v>
-      </c>
-      <c r="D26" s="20">
-        <v>39000</v>
+      <c r="C26" s="18">
+        <v>12052</v>
+      </c>
+      <c r="D26" s="18">
+        <v>15000</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
@@ -1333,10 +1301,10 @@
       <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="20">
-        <v>12052</v>
-      </c>
-      <c r="D27" s="20">
+      <c r="C27" s="18">
+        <v>12111</v>
+      </c>
+      <c r="D27" s="18">
         <v>15000</v>
       </c>
       <c r="E27" s="3"/>
@@ -1351,11 +1319,11 @@
       <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="20">
-        <v>12111</v>
-      </c>
-      <c r="D28" s="20">
-        <v>15000</v>
+      <c r="C28" s="18">
+        <v>23763</v>
+      </c>
+      <c r="D28" s="18">
+        <v>27000</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
@@ -1366,14 +1334,14 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="20">
-        <v>23763</v>
+        <v>51013</v>
       </c>
       <c r="D29" s="20">
-        <v>27000</v>
+        <v>54000</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
@@ -1387,11 +1355,11 @@
       <c r="B30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="22">
-        <v>51013</v>
-      </c>
-      <c r="D30" s="22">
-        <v>54000</v>
+      <c r="C30" s="20">
+        <v>41969</v>
+      </c>
+      <c r="D30" s="20">
+        <v>45000</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
@@ -1402,14 +1370,14 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="22">
-        <v>41969</v>
-      </c>
-      <c r="D31" s="22">
-        <v>45000</v>
+      <c r="C31" s="18">
+        <v>26836</v>
+      </c>
+      <c r="D31" s="18">
+        <v>30000</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
@@ -1420,17 +1388,19 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="20">
-        <v>26836</v>
+        <v>41900</v>
       </c>
       <c r="D32" s="20">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -1441,15 +1411,15 @@
       <c r="B33" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="22">
-        <v>41900</v>
-      </c>
-      <c r="D33" s="22">
+      <c r="C33" s="20">
+        <v>42033</v>
+      </c>
+      <c r="D33" s="20">
         <v>45000</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -1458,19 +1428,17 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="22">
-        <v>42033</v>
-      </c>
-      <c r="D34" s="22">
-        <v>45000</v>
+      <c r="C34" s="18">
+        <v>36030</v>
+      </c>
+      <c r="D34" s="18">
+        <v>39000</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
@@ -1478,18 +1446,16 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="18">
-        <v>48107</v>
-      </c>
-      <c r="D35" s="18">
-        <v>51000</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="C35" s="20">
+        <v>45126</v>
+      </c>
+      <c r="D35" s="20">
+        <v>48000</v>
+      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
         <v>62</v>
       </c>
@@ -1503,13 +1469,13 @@
       <c r="B36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="20">
-        <v>36030</v>
-      </c>
-      <c r="D36" s="20">
-        <v>39000</v>
-      </c>
-      <c r="E36" s="3"/>
+      <c r="C36" s="18">
+        <v>8913</v>
+      </c>
+      <c r="D36" s="18">
+        <v>12000</v>
+      </c>
+      <c r="E36" s="16"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1518,19 +1484,17 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="22">
-        <v>45126</v>
-      </c>
-      <c r="D37" s="22">
-        <v>48000</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C37" s="18">
+        <v>18038</v>
+      </c>
+      <c r="D37" s="18">
+        <v>21000</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
@@ -1541,13 +1505,13 @@
       <c r="B38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="20">
-        <v>8913</v>
-      </c>
-      <c r="D38" s="20">
+      <c r="C38" s="18">
+        <v>9296</v>
+      </c>
+      <c r="D38" s="18">
         <v>12000</v>
       </c>
-      <c r="E38" s="17"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1559,13 +1523,13 @@
       <c r="B39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="20">
-        <v>18038</v>
-      </c>
-      <c r="D39" s="20">
-        <v>21000</v>
-      </c>
-      <c r="E39" s="17"/>
+      <c r="C39" s="18">
+        <v>6025</v>
+      </c>
+      <c r="D39" s="18">
+        <v>9000</v>
+      </c>
+      <c r="E39" s="16"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1577,13 +1541,13 @@
       <c r="B40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="20">
-        <v>9296</v>
-      </c>
-      <c r="D40" s="20">
+      <c r="C40" s="18">
+        <v>9030</v>
+      </c>
+      <c r="D40" s="18">
         <v>12000</v>
       </c>
-      <c r="E40" s="17"/>
+      <c r="E40" s="16"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1595,13 +1559,13 @@
       <c r="B41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="20">
-        <v>6025</v>
-      </c>
-      <c r="D41" s="20">
-        <v>9000</v>
-      </c>
-      <c r="E41" s="17"/>
+      <c r="C41" s="18">
+        <v>3024</v>
+      </c>
+      <c r="D41" s="18">
+        <v>6000</v>
+      </c>
+      <c r="E41" s="16"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -1613,13 +1577,13 @@
       <c r="B42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="20">
-        <v>9030</v>
-      </c>
-      <c r="D42" s="20">
+      <c r="C42" s="18">
+        <v>9031</v>
+      </c>
+      <c r="D42" s="18">
         <v>12000</v>
       </c>
-      <c r="E42" s="17"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1631,13 +1595,13 @@
       <c r="B43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="20">
-        <v>3024</v>
-      </c>
-      <c r="D43" s="20">
+      <c r="C43" s="18">
+        <v>2991</v>
+      </c>
+      <c r="D43" s="18">
         <v>6000</v>
       </c>
-      <c r="E43" s="17"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1649,13 +1613,13 @@
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="20">
-        <v>9031</v>
-      </c>
-      <c r="D44" s="20">
-        <v>12000</v>
-      </c>
-      <c r="E44" s="17"/>
+      <c r="C44" s="18">
+        <v>6335</v>
+      </c>
+      <c r="D44" s="18">
+        <v>9000</v>
+      </c>
+      <c r="E44" s="16"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -1667,13 +1631,13 @@
       <c r="B45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="20">
-        <v>2991</v>
-      </c>
-      <c r="D45" s="20">
+      <c r="C45" s="18">
+        <v>3093</v>
+      </c>
+      <c r="D45" s="18">
         <v>6000</v>
       </c>
-      <c r="E45" s="17"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -1685,13 +1649,13 @@
       <c r="B46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="20">
-        <v>6335</v>
-      </c>
-      <c r="D46" s="20">
-        <v>9000</v>
-      </c>
-      <c r="E46" s="17"/>
+      <c r="C46" s="18">
+        <v>9230</v>
+      </c>
+      <c r="D46" s="18">
+        <v>12000</v>
+      </c>
+      <c r="E46" s="16"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -1703,13 +1667,13 @@
       <c r="B47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="20">
-        <v>3093</v>
-      </c>
-      <c r="D47" s="20">
-        <v>6000</v>
-      </c>
-      <c r="E47" s="17"/>
+      <c r="C47" s="18">
+        <v>6072</v>
+      </c>
+      <c r="D47" s="18">
+        <v>9000</v>
+      </c>
+      <c r="E47" s="16"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -1721,13 +1685,13 @@
       <c r="B48" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="20">
-        <v>6117</v>
-      </c>
-      <c r="D48" s="20">
+      <c r="C48" s="18">
+        <v>6131</v>
+      </c>
+      <c r="D48" s="18">
         <v>9000</v>
       </c>
-      <c r="E48" s="17"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -1739,13 +1703,13 @@
       <c r="B49" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="20">
-        <v>6072</v>
-      </c>
-      <c r="D49" s="20">
-        <v>9000</v>
-      </c>
-      <c r="E49" s="17"/>
+      <c r="C49" s="18">
+        <v>3011</v>
+      </c>
+      <c r="D49" s="18">
+        <v>6000</v>
+      </c>
+      <c r="E49" s="16"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -1757,13 +1721,13 @@
       <c r="B50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="20">
-        <v>6131</v>
-      </c>
-      <c r="D50" s="20">
-        <v>9000</v>
-      </c>
-      <c r="E50" s="17"/>
+      <c r="C50" s="18">
+        <v>3088</v>
+      </c>
+      <c r="D50" s="18">
+        <v>6000</v>
+      </c>
+      <c r="E50" s="16"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -1775,13 +1739,13 @@
       <c r="B51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="20">
-        <v>3011</v>
-      </c>
-      <c r="D51" s="20">
-        <v>6000</v>
-      </c>
-      <c r="E51" s="17"/>
+      <c r="C51" s="18">
+        <v>5937</v>
+      </c>
+      <c r="D51" s="18">
+        <v>9000</v>
+      </c>
+      <c r="E51" s="16"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -1793,13 +1757,13 @@
       <c r="B52" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="20">
-        <v>3088</v>
-      </c>
-      <c r="D52" s="20">
-        <v>6000</v>
-      </c>
-      <c r="E52" s="17"/>
+      <c r="C52" s="18">
+        <v>5991</v>
+      </c>
+      <c r="D52" s="18">
+        <v>9000</v>
+      </c>
+      <c r="E52" s="16"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -1811,13 +1775,13 @@
       <c r="B53" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="20">
-        <v>5937</v>
-      </c>
-      <c r="D53" s="20">
+      <c r="C53" s="18">
+        <v>6001</v>
+      </c>
+      <c r="D53" s="18">
         <v>9000</v>
       </c>
-      <c r="E53" s="17"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -1829,53 +1793,19 @@
       <c r="B54" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="20">
-        <v>5991</v>
-      </c>
-      <c r="D54" s="20">
-        <v>9000</v>
-      </c>
-      <c r="E54" s="17"/>
+      <c r="C54" s="18">
+        <v>1099</v>
+      </c>
+      <c r="D54" s="18">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="16"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="20">
-        <v>6001</v>
-      </c>
-      <c r="D55" s="20">
-        <v>9000</v>
-      </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" ht="27" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="20">
-        <v>1099</v>
-      </c>
-      <c r="D56" s="20">
-        <v>3000</v>
-      </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEDCE83-33AE-EC40-AB25-2F3AA6890A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3829C333-9529-9747-B69C-0DBD42458975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -790,7 +790,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1776,10 +1776,10 @@
         <v>57</v>
       </c>
       <c r="C53" s="18">
-        <v>6001</v>
+        <v>9026</v>
       </c>
       <c r="D53" s="18">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3829C333-9529-9747-B69C-0DBD42458975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F54E0-A501-684F-8E8D-F69DDCE9D0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -787,10 +787,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1302,10 +1302,10 @@
         <v>31</v>
       </c>
       <c r="C27" s="18">
-        <v>12111</v>
+        <v>14758</v>
       </c>
       <c r="D27" s="18">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743F54E0-A501-684F-8E8D-F69DDCE9D0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124E807-596D-A143-A664-516401AC805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -787,10 +787,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1320,10 +1320,10 @@
         <v>32</v>
       </c>
       <c r="C28" s="18">
-        <v>23763</v>
+        <v>27214</v>
       </c>
       <c r="D28" s="18">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
@@ -1686,10 +1686,10 @@
         <v>52</v>
       </c>
       <c r="C48" s="18">
-        <v>6131</v>
+        <v>9018</v>
       </c>
       <c r="D48" s="18">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124E807-596D-A143-A664-516401AC805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC70170-A4DB-DD41-BC0A-1AE5D5AD00EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Fleet Mileage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -787,10 +787,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1450,10 +1450,10 @@
         <v>39</v>
       </c>
       <c r="C35" s="20">
-        <v>45126</v>
+        <v>48076</v>
       </c>
       <c r="D35" s="20">
-        <v>48000</v>
+        <v>51000</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
@@ -1794,10 +1794,10 @@
         <v>58</v>
       </c>
       <c r="C54" s="18">
-        <v>1099</v>
+        <v>3312</v>
       </c>
       <c r="D54" s="18">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Business/scootdr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC70170-A4DB-DD41-BC0A-1AE5D5AD00EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133A27E1-B1CB-6C42-9338-AEF52EAEA7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -787,10 +787,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -854,10 +854,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="18">
-        <v>27076</v>
+        <v>30086</v>
       </c>
       <c r="D3" s="18">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
@@ -1470,10 +1470,10 @@
         <v>40</v>
       </c>
       <c r="C36" s="18">
-        <v>8913</v>
+        <v>11510</v>
       </c>
       <c r="D36" s="18">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="4"/>
@@ -1614,10 +1614,10 @@
         <v>48</v>
       </c>
       <c r="C44" s="18">
-        <v>6335</v>
+        <v>9081</v>
       </c>
       <c r="D44" s="18">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133A27E1-B1CB-6C42-9338-AEF52EAEA7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AF08C0-6FBE-7844-AA70-BF3896019FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -787,10 +787,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -834,10 +834,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="18">
-        <v>11631</v>
+        <v>14866</v>
       </c>
       <c r="D2" s="18">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1096,10 +1096,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="20">
-        <v>51269</v>
+        <v>54046</v>
       </c>
       <c r="D16" s="20">
-        <v>54000</v>
+        <v>57000</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AF08C0-6FBE-7844-AA70-BF3896019FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D302879A-0C95-E24F-B604-3AD62166235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -787,10 +786,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1024,10 +1023,10 @@
         <v>61</v>
       </c>
       <c r="C12" s="20">
-        <v>42022</v>
+        <v>44966</v>
       </c>
       <c r="D12" s="20">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
@@ -1374,10 +1373,10 @@
         <v>35</v>
       </c>
       <c r="C31" s="18">
-        <v>26836</v>
+        <v>29870</v>
       </c>
       <c r="D31" s="18">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D302879A-0C95-E24F-B604-3AD62166235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AA6D06-1D67-5646-81F3-8FF16F83811C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -786,10 +786,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -967,10 +967,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="19">
-        <v>39035</v>
+        <v>42907</v>
       </c>
       <c r="D9" s="19">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
@@ -1411,10 +1411,10 @@
         <v>37</v>
       </c>
       <c r="C33" s="20">
-        <v>42033</v>
+        <v>44686</v>
       </c>
       <c r="D33" s="20">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
@@ -1667,10 +1667,10 @@
         <v>51</v>
       </c>
       <c r="C47" s="18">
-        <v>6072</v>
+        <v>9092</v>
       </c>
       <c r="D47" s="18">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AA6D06-1D67-5646-81F3-8FF16F83811C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C555F6-8EBD-744A-AF41-B3A61235E3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>No.</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>1. Bike Set aside by controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was involved in accident and Front Fork was not replaced. It's skew </t>
   </si>
 </sst>
 </file>
@@ -786,10 +789,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -899,7 +902,9 @@
         <v>12000</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="7" t="s">
         <v>9</v>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C555F6-8EBD-744A-AF41-B3A61235E3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C24CA4A-E668-374E-8A07-E4CA5A725590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -789,10 +789,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1270,10 +1270,10 @@
         <v>29</v>
       </c>
       <c r="C25" s="18">
-        <v>35531</v>
+        <v>38967</v>
       </c>
       <c r="D25" s="18">
-        <v>39000</v>
+        <v>42000</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C24CA4A-E668-374E-8A07-E4CA5A725590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B7AAEE-B915-D546-9571-83BA33DEB14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -789,10 +789,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1138,10 +1138,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="20">
-        <v>41963</v>
+        <v>47850</v>
       </c>
       <c r="D18" s="20">
-        <v>45000</v>
+        <v>51000</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
@@ -1600,10 +1600,10 @@
         <v>47</v>
       </c>
       <c r="C43" s="18">
-        <v>2991</v>
+        <v>5995</v>
       </c>
       <c r="D43" s="18">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B7AAEE-B915-D546-9571-83BA33DEB14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA9A17E-00F7-7749-B662-9D12EB3B8B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -789,10 +789,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1010,10 +1010,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="18">
-        <v>21322</v>
+        <v>24586</v>
       </c>
       <c r="D11" s="18">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
@@ -1582,10 +1582,10 @@
         <v>46</v>
       </c>
       <c r="C42" s="18">
-        <v>9031</v>
+        <v>12648</v>
       </c>
       <c r="D42" s="18">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="4"/>
@@ -1726,10 +1726,10 @@
         <v>54</v>
       </c>
       <c r="C50" s="18">
-        <v>3088</v>
+        <v>6045</v>
       </c>
       <c r="D50" s="18">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="4"/>
@@ -1780,10 +1780,10 @@
         <v>57</v>
       </c>
       <c r="C53" s="18">
-        <v>9026</v>
+        <v>112017</v>
       </c>
       <c r="D53" s="18">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="4"/>
@@ -1798,10 +1798,10 @@
         <v>58</v>
       </c>
       <c r="C54" s="18">
-        <v>3312</v>
+        <v>5977</v>
       </c>
       <c r="D54" s="18">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA9A17E-00F7-7749-B662-9D12EB3B8B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29CD8D9-5FFB-DA4C-A03E-DCBECEB0401F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,7 +792,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -936,10 +936,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="18">
-        <v>14589</v>
+        <v>17998</v>
       </c>
       <c r="D7" s="18">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
@@ -1546,10 +1546,10 @@
         <v>44</v>
       </c>
       <c r="C40" s="18">
-        <v>9030</v>
+        <v>12075</v>
       </c>
       <c r="D40" s="18">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29CD8D9-5FFB-DA4C-A03E-DCBECEB0401F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA13A9FF-545F-C843-A53E-674841AD32CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -789,10 +789,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1654,10 +1654,10 @@
         <v>50</v>
       </c>
       <c r="C46" s="18">
-        <v>9230</v>
+        <v>11898</v>
       </c>
       <c r="D46" s="18">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="4"/>
@@ -1690,10 +1690,10 @@
         <v>52</v>
       </c>
       <c r="C48" s="18">
-        <v>9018</v>
+        <v>12089</v>
       </c>
       <c r="D48" s="18">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA13A9FF-545F-C843-A53E-674841AD32CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7676FA0A-48C0-1F4A-B6C1-836C9B57F7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>No.</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve">Was involved in accident and Front Fork was not replaced. It's skew </t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -789,10 +792,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -995,7 +998,9 @@
       <c r="D10" s="18">
         <v>12000</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>67</v>
       </c>
@@ -1033,7 +1038,9 @@
       <c r="D12" s="20">
         <v>48000</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1105,7 +1112,9 @@
       <c r="D16" s="20">
         <v>57000</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1123,7 +1132,9 @@
       <c r="D17" s="20">
         <v>54000</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>68</v>
       </c>
@@ -1161,7 +1172,9 @@
       <c r="D19" s="20">
         <v>48000</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>59</v>
       </c>
@@ -1234,10 +1247,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="18">
-        <v>24091</v>
+        <v>26833</v>
       </c>
       <c r="D23" s="18">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
@@ -1347,7 +1360,9 @@
       <c r="D29" s="20">
         <v>54000</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1401,7 +1416,9 @@
       <c r="D32" s="20">
         <v>45000</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F32" s="4" t="s">
         <v>65</v>
       </c>
@@ -1421,7 +1438,9 @@
       <c r="D33" s="20">
         <v>48000</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F33" s="4" t="s">
         <v>60</v>
       </c>
@@ -1459,7 +1478,9 @@
       <c r="D35" s="20">
         <v>51000</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F35" s="4" t="s">
         <v>62</v>
       </c>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7676FA0A-48C0-1F4A-B6C1-836C9B57F7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3579619A-4550-0343-B6F3-2F23E8E08CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -921,10 +921,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="18">
-        <v>11979</v>
+        <v>14679</v>
       </c>
       <c r="D6" s="18">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3579619A-4550-0343-B6F3-2F23E8E08CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742BD809-0534-DE42-8207-B65A24D0FED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1089,10 +1089,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="18">
-        <v>27093</v>
+        <v>32935</v>
       </c>
       <c r="D15" s="18">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
@@ -1549,10 +1549,10 @@
         <v>43</v>
       </c>
       <c r="C39" s="18">
-        <v>6025</v>
+        <v>9032</v>
       </c>
       <c r="D39" s="18">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="4"/>
@@ -1783,10 +1783,10 @@
         <v>56</v>
       </c>
       <c r="C52" s="18">
-        <v>5991</v>
+        <v>9260</v>
       </c>
       <c r="D52" s="18">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742BD809-0534-DE42-8207-B65A24D0FED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDAA344-E4AE-354E-83B0-9DC4ECEE68E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -859,10 +859,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="18">
-        <v>30086</v>
+        <v>32751</v>
       </c>
       <c r="D3" s="18">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
@@ -1229,10 +1229,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="18">
-        <v>23989</v>
+        <v>26964</v>
       </c>
       <c r="D22" s="18">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
@@ -1639,10 +1639,10 @@
         <v>48</v>
       </c>
       <c r="C44" s="18">
-        <v>9081</v>
+        <v>12097</v>
       </c>
       <c r="D44" s="18">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDAA344-E4AE-354E-83B0-9DC4ECEE68E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DB5C58-5240-A445-9C51-F0A6E294D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -899,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="18">
-        <v>8669</v>
+        <v>11915</v>
       </c>
       <c r="D5" s="18">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="4" t="s">
@@ -1033,10 +1033,10 @@
         <v>61</v>
       </c>
       <c r="C12" s="20">
-        <v>44966</v>
+        <v>47352</v>
       </c>
       <c r="D12" s="20">
-        <v>48000</v>
+        <v>51000</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>71</v>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DB5C58-5240-A445-9C51-F0A6E294D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2852AE5-6332-E940-84EC-C122EA1DCF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1053,10 +1053,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="18">
-        <v>32998</v>
+        <v>35997</v>
       </c>
       <c r="D13" s="18">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
@@ -1107,10 +1107,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="20">
-        <v>54046</v>
+        <v>57078</v>
       </c>
       <c r="D16" s="20">
-        <v>57000</v>
+        <v>60000</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>71</v>
@@ -1167,10 +1167,10 @@
         <v>23</v>
       </c>
       <c r="C19" s="20">
-        <v>44661</v>
+        <v>47816</v>
       </c>
       <c r="D19" s="20">
-        <v>48000</v>
+        <v>51000</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>71</v>
@@ -1265,10 +1265,10 @@
         <v>28</v>
       </c>
       <c r="C24" s="19">
-        <v>39146</v>
+        <v>42018</v>
       </c>
       <c r="D24" s="19">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
@@ -1513,10 +1513,10 @@
         <v>41</v>
       </c>
       <c r="C37" s="18">
-        <v>18038</v>
+        <v>24096</v>
       </c>
       <c r="D37" s="18">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2852AE5-6332-E940-84EC-C122EA1DCF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37297ADA-451C-274D-AE82-BE6274D33340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1819,10 +1819,10 @@
         <v>58</v>
       </c>
       <c r="C54" s="18">
-        <v>5977</v>
+        <v>8665</v>
       </c>
       <c r="D54" s="18">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37297ADA-451C-274D-AE82-BE6274D33340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9970C6F9-F86A-254B-A097-4D1AF8AAF6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -957,10 +957,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="18">
-        <v>14991</v>
+        <v>21340</v>
       </c>
       <c r="D8" s="18">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
@@ -1071,10 +1071,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="18">
-        <v>15012</v>
+        <v>18006</v>
       </c>
       <c r="D14" s="18">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
@@ -1375,10 +1375,10 @@
         <v>34</v>
       </c>
       <c r="C30" s="20">
-        <v>41969</v>
+        <v>45005</v>
       </c>
       <c r="D30" s="20">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
@@ -1455,10 +1455,10 @@
         <v>38</v>
       </c>
       <c r="C34" s="18">
-        <v>36030</v>
+        <v>38901</v>
       </c>
       <c r="D34" s="18">
-        <v>39000</v>
+        <v>42000</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
@@ -1473,10 +1473,10 @@
         <v>39</v>
       </c>
       <c r="C35" s="20">
-        <v>48076</v>
+        <v>51073</v>
       </c>
       <c r="D35" s="20">
-        <v>51000</v>
+        <v>54000</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>71</v>
@@ -1531,10 +1531,10 @@
         <v>42</v>
       </c>
       <c r="C38" s="18">
-        <v>9296</v>
+        <v>12070</v>
       </c>
       <c r="D38" s="18">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="4"/>
@@ -1747,10 +1747,10 @@
         <v>54</v>
       </c>
       <c r="C50" s="18">
-        <v>6045</v>
+        <v>9022</v>
       </c>
       <c r="D50" s="18">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9970C6F9-F86A-254B-A097-4D1AF8AAF6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67259AE1-40D6-DE48-87C6-86A69ED286F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,7 +792,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
@@ -1765,10 +1765,10 @@
         <v>55</v>
       </c>
       <c r="C51" s="18">
-        <v>5937</v>
+        <v>8433</v>
       </c>
       <c r="D51" s="18">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E51" s="16"/>
       <c r="F51" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67259AE1-40D6-DE48-87C6-86A69ED286F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF241598-C7C6-DB41-B190-B18C92FD8992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1693,10 +1693,10 @@
         <v>51</v>
       </c>
       <c r="C47" s="18">
-        <v>9092</v>
+        <v>11991</v>
       </c>
       <c r="D47" s="18">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF241598-C7C6-DB41-B190-B18C92FD8992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B93BEB6-4A31-A24B-9EE8-C50786147A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>No.</t>
   </si>
@@ -217,9 +217,6 @@
     <t>1. Steering Stem needs bearings. 2. Ignition faulty open to all keys</t>
   </si>
   <si>
-    <t>1. Transmission noise -2211A-F6C-0002</t>
-  </si>
-  <si>
     <t>LD90DTGP</t>
   </si>
   <si>
@@ -238,19 +235,46 @@
     <t>1. Written Off</t>
   </si>
   <si>
-    <t>1. Out for Accident repair. 02/09/2025</t>
-  </si>
-  <si>
     <t>1. Not Charging 2. Bike set aside by controller</t>
   </si>
   <si>
-    <t>1. Bike Set aside by controller</t>
-  </si>
-  <si>
     <t xml:space="preserve">Was involved in accident and Front Fork was not replaced. It's skew </t>
   </si>
   <si>
-    <t>B</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>MR01HNGP</t>
+  </si>
+  <si>
+    <t>MR01JDGP</t>
+  </si>
+  <si>
+    <t>MR01JZGP</t>
+  </si>
+  <si>
+    <t>MR01HVGP</t>
+  </si>
+  <si>
+    <t>MR01HSGP</t>
+  </si>
+  <si>
+    <t>MR01KJGP</t>
+  </si>
+  <si>
+    <t>MR01KGGP</t>
+  </si>
+  <si>
+    <t>MR01KRGP</t>
+  </si>
+  <si>
+    <t>MR01HXGP</t>
+  </si>
+  <si>
+    <t>Written off. Uplifted by insurance</t>
+  </si>
+  <si>
+    <t>Engine Oil Leak</t>
   </si>
 </sst>
 </file>
@@ -261,7 +285,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,6 +354,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -391,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -430,9 +461,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -451,8 +479,27 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,21 +836,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD8F41E-515C-324C-BF16-60C17361A01E}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
@@ -811,1031 +858,1140 @@
     <col min="9" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
+      <c r="B2" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="18">
-        <v>14866</v>
+        <v>32751</v>
       </c>
       <c r="D2" s="18">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
+      <c r="B3" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="18">
-        <v>32751</v>
+        <v>35997</v>
       </c>
       <c r="D3" s="18">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
+      <c r="B4" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="18">
-        <v>9120</v>
+        <v>32935</v>
       </c>
       <c r="D4" s="18">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
+      <c r="B5" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="18">
-        <v>11915</v>
+        <v>32981</v>
       </c>
       <c r="D5" s="18">
-        <v>15000</v>
+        <v>36000</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
+      <c r="B6" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="18">
-        <v>14679</v>
+        <v>38967</v>
       </c>
       <c r="D6" s="18">
-        <v>18000</v>
+        <v>42000</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
+      <c r="B7" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="18">
-        <v>17998</v>
+        <v>38901</v>
       </c>
       <c r="D7" s="18">
-        <v>21000</v>
+        <v>42000</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18">
-        <v>21340</v>
-      </c>
-      <c r="D8" s="18">
-        <v>24000</v>
+      <c r="B8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <v>45053</v>
+      </c>
+      <c r="D8" s="19">
+        <v>48000</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" s="19">
-        <v>42907</v>
+        <v>47850</v>
       </c>
       <c r="D9" s="19">
-        <v>45000</v>
+        <v>51000</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="18">
-        <v>9017</v>
-      </c>
-      <c r="D10" s="18">
-        <v>12000</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+      <c r="B10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="19">
+        <v>42018</v>
+      </c>
+      <c r="D10" s="19">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18">
-        <v>24586</v>
-      </c>
-      <c r="D11" s="18">
-        <v>27000</v>
+      <c r="B11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="19">
+        <v>45005</v>
+      </c>
+      <c r="D11" s="19">
+        <v>48000</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="20">
-        <v>47352</v>
-      </c>
-      <c r="D12" s="20">
-        <v>51000</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="17">
+        <v>14866</v>
+      </c>
+      <c r="D12" s="17">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="18">
-        <v>35997</v>
-      </c>
-      <c r="D13" s="18">
-        <v>39000</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="17">
+        <v>9120</v>
+      </c>
+      <c r="D13" s="17">
+        <v>12000</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="18">
-        <v>18006</v>
-      </c>
-      <c r="D14" s="18">
-        <v>21000</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="17">
+        <v>11915</v>
+      </c>
+      <c r="D14" s="17">
+        <v>15000</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+      <c r="F14" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="18">
-        <v>32935</v>
-      </c>
-      <c r="D15" s="18">
-        <v>36000</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="17">
+        <v>14679</v>
+      </c>
+      <c r="D15" s="17">
+        <v>18000</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="20">
-        <v>57078</v>
-      </c>
-      <c r="D16" s="20">
-        <v>60000</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="17">
+        <v>17998</v>
+      </c>
+      <c r="D16" s="17">
+        <v>21000</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="20">
-        <v>51000</v>
-      </c>
-      <c r="D17" s="20">
-        <v>54000</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>68</v>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="17">
+        <v>21340</v>
+      </c>
+      <c r="D17" s="17">
+        <v>24000</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="20">
-        <v>47850</v>
-      </c>
-      <c r="D18" s="20">
-        <v>51000</v>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="17">
+        <v>26964</v>
+      </c>
+      <c r="D18" s="17">
+        <v>30000</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="20">
-        <v>47816</v>
-      </c>
-      <c r="D19" s="20">
-        <v>51000</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>59</v>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="17">
+        <v>26833</v>
+      </c>
+      <c r="D19" s="17">
+        <v>30000</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="18">
-        <v>30132</v>
-      </c>
-      <c r="D20" s="18">
-        <v>33000</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4" t="s">
-        <v>66</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="17">
+        <v>18006</v>
+      </c>
+      <c r="D20" s="17">
+        <v>21000</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="18">
-        <v>32981</v>
-      </c>
-      <c r="D21" s="18">
-        <v>36000</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="17">
+        <v>12052</v>
+      </c>
+      <c r="D21" s="17">
+        <v>15000</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="F21" s="25"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="18">
-        <v>26964</v>
-      </c>
-      <c r="D22" s="18">
-        <v>30000</v>
+        <v>31</v>
+      </c>
+      <c r="C22" s="17">
+        <v>14758</v>
+      </c>
+      <c r="D22" s="17">
+        <v>18000</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="18">
-        <v>26833</v>
-      </c>
-      <c r="D23" s="18">
-        <v>30000</v>
+        <v>32</v>
+      </c>
+      <c r="C23" s="17">
+        <v>29847</v>
+      </c>
+      <c r="D23" s="17">
+        <v>33000</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="19">
-        <v>42018</v>
-      </c>
-      <c r="D24" s="19">
-        <v>45000</v>
+      <c r="B24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="17">
+        <v>29870</v>
+      </c>
+      <c r="D24" s="17">
+        <v>33000</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="18">
-        <v>38967</v>
-      </c>
-      <c r="D25" s="18">
-        <v>42000</v>
+        <v>16</v>
+      </c>
+      <c r="C25" s="17">
+        <v>24586</v>
+      </c>
+      <c r="D25" s="17">
+        <v>27000</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="18">
-        <v>12052</v>
-      </c>
-      <c r="D26" s="18">
-        <v>15000</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C26" s="17">
+        <v>15043</v>
+      </c>
+      <c r="D26" s="17">
+        <v>18000</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="18">
-        <v>14758</v>
-      </c>
-      <c r="D27" s="18">
-        <v>18000</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C27" s="17">
+        <v>24096</v>
+      </c>
+      <c r="D27" s="17">
+        <v>27000</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="18">
-        <v>27214</v>
-      </c>
-      <c r="D28" s="18">
-        <v>30000</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C28" s="17">
+        <v>12070</v>
+      </c>
+      <c r="D28" s="17">
+        <v>15000</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="20">
-        <v>51013</v>
-      </c>
-      <c r="D29" s="20">
-        <v>54000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="17">
+        <v>9032</v>
+      </c>
+      <c r="D29" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="20">
-        <v>45005</v>
-      </c>
-      <c r="D30" s="20">
-        <v>48000</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="17">
+        <v>12075</v>
+      </c>
+      <c r="D30" s="17">
+        <v>15000</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="18">
-        <v>29870</v>
-      </c>
-      <c r="D31" s="18">
-        <v>33000</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3024</v>
+      </c>
+      <c r="D31" s="17">
+        <v>6000</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="25"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="20">
-        <v>41900</v>
-      </c>
-      <c r="D32" s="20">
-        <v>45000</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="17">
+        <v>12648</v>
+      </c>
+      <c r="D32" s="17">
+        <v>15000</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="20">
-        <v>44686</v>
-      </c>
-      <c r="D33" s="20">
-        <v>48000</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="17">
+        <v>5995</v>
+      </c>
+      <c r="D33" s="17">
+        <v>9000</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="18">
-        <v>38901</v>
-      </c>
-      <c r="D34" s="18">
-        <v>42000</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="C34" s="17">
+        <v>12097</v>
+      </c>
+      <c r="D34" s="17">
+        <v>15000</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="25"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="20">
-        <v>51073</v>
-      </c>
-      <c r="D35" s="20">
-        <v>54000</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3093</v>
+      </c>
+      <c r="D35" s="17">
+        <v>6000</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="18">
-        <v>11510</v>
-      </c>
-      <c r="D36" s="18">
+        <v>50</v>
+      </c>
+      <c r="C36" s="17">
+        <v>11898</v>
+      </c>
+      <c r="D36" s="17">
         <v>15000</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="4"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="18">
-        <v>24096</v>
-      </c>
-      <c r="D37" s="18">
-        <v>27000</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C37" s="17">
+        <v>11991</v>
+      </c>
+      <c r="D37" s="17">
+        <v>15000</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="25"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="18">
-        <v>12070</v>
-      </c>
-      <c r="D38" s="18">
+        <v>52</v>
+      </c>
+      <c r="C38" s="17">
+        <v>12089</v>
+      </c>
+      <c r="D38" s="17">
         <v>15000</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="4"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="18">
-        <v>9032</v>
-      </c>
-      <c r="D39" s="18">
-        <v>12000</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="C39" s="17">
+        <v>3011</v>
+      </c>
+      <c r="D39" s="17">
+        <v>6000</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="25"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="18">
-        <v>12075</v>
-      </c>
-      <c r="D40" s="18">
-        <v>15000</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="C40" s="17">
+        <v>9022</v>
+      </c>
+      <c r="D40" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="25"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="18">
-        <v>3024</v>
-      </c>
-      <c r="D41" s="18">
-        <v>6000</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="C41" s="17">
+        <v>8433</v>
+      </c>
+      <c r="D41" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="25"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="18">
-        <v>12648</v>
-      </c>
-      <c r="D42" s="18">
-        <v>15000</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="C42" s="17">
+        <v>9260</v>
+      </c>
+      <c r="D42" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="18">
-        <v>5995</v>
-      </c>
-      <c r="D43" s="18">
-        <v>9000</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C43" s="17">
+        <v>12017</v>
+      </c>
+      <c r="D43" s="17">
+        <v>15000</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="25"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="18">
-        <v>12097</v>
-      </c>
-      <c r="D44" s="18">
-        <v>15000</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="C44" s="17">
+        <v>8665</v>
+      </c>
+      <c r="D44" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="18">
-        <v>3093</v>
-      </c>
-      <c r="D45" s="18">
-        <v>6000</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0</v>
+      </c>
+      <c r="D45" s="17">
+        <v>1000</v>
+      </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="18">
-        <v>11898</v>
-      </c>
-      <c r="D46" s="18">
-        <v>15000</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0</v>
+      </c>
+      <c r="D46" s="17">
+        <v>1000</v>
+      </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="18">
-        <v>11991</v>
-      </c>
-      <c r="D47" s="18">
-        <v>15000</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0</v>
+      </c>
+      <c r="D47" s="17">
+        <v>1000</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="18">
-        <v>12089</v>
-      </c>
-      <c r="D48" s="18">
-        <v>15000</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="C48" s="17">
+        <v>0</v>
+      </c>
+      <c r="D48" s="17">
+        <v>1000</v>
+      </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="18">
-        <v>3011</v>
-      </c>
-      <c r="D49" s="18">
-        <v>6000</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0</v>
+      </c>
+      <c r="D49" s="17">
+        <v>1000</v>
+      </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="18">
-        <v>9022</v>
-      </c>
-      <c r="D50" s="18">
-        <v>12000</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0</v>
+      </c>
+      <c r="D50" s="17">
+        <v>1000</v>
+      </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="18">
-        <v>8433</v>
-      </c>
-      <c r="D51" s="18">
-        <v>12000</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0</v>
+      </c>
+      <c r="D51" s="17">
+        <v>1000</v>
+      </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="18">
-        <v>9260</v>
-      </c>
-      <c r="D52" s="18">
-        <v>12000</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0</v>
+      </c>
+      <c r="D52" s="17">
+        <v>1000</v>
+      </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="18">
-        <v>112017</v>
-      </c>
-      <c r="D53" s="18">
-        <v>15000</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="C53" s="17">
+        <v>0</v>
+      </c>
+      <c r="D53" s="17">
+        <v>1000</v>
+      </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="18">
-        <v>8665</v>
-      </c>
-      <c r="D54" s="18">
-        <v>12000</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="C54" s="17">
+        <v>0</v>
+      </c>
+      <c r="D54" s="17">
+        <v>1000</v>
+      </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="22">
+        <v>9017</v>
+      </c>
+      <c r="D55" s="22">
+        <v>12000</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="22">
+        <v>51013</v>
+      </c>
+      <c r="D56" s="22">
+        <v>54000</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="22">
+        <v>51073</v>
+      </c>
+      <c r="D57" s="22">
+        <v>54000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="22">
+        <v>41900</v>
+      </c>
+      <c r="D58" s="22">
+        <v>45000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="22">
+        <v>44686</v>
+      </c>
+      <c r="D59" s="22">
+        <v>48000</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="22">
+        <v>57078</v>
+      </c>
+      <c r="D60" s="22">
+        <v>60000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="22">
+        <v>51000</v>
+      </c>
+      <c r="D61" s="22">
+        <v>54000</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="22">
+        <v>47816</v>
+      </c>
+      <c r="D62" s="22">
+        <v>51000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="27">
+        <v>47352</v>
+      </c>
+      <c r="D63" s="27">
+        <v>51000</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="22">
+        <v>30132</v>
+      </c>
+      <c r="D64" s="22">
+        <v>33000</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B93BEB6-4A31-A24B-9EE8-C50786147A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF13EA-94D9-4647-8CFD-180918740B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1604,10 +1604,10 @@
         <v>57</v>
       </c>
       <c r="C43" s="17">
-        <v>12017</v>
+        <v>14954</v>
       </c>
       <c r="D43" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF13EA-94D9-4647-8CFD-180918740B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F0B6B9-8086-E947-BCF0-C0695D0DA38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -946,10 +946,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="18">
-        <v>32981</v>
+        <v>35771</v>
       </c>
       <c r="D5" s="18">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="E5" s="12"/>
       <c r="G5" s="13"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F0B6B9-8086-E947-BCF0-C0695D0DA38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5B36D0-8039-3946-9D44-AD1DE4549FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1406,10 +1406,10 @@
         <v>46</v>
       </c>
       <c r="C32" s="17">
-        <v>12648</v>
+        <v>18033</v>
       </c>
       <c r="D32" s="17">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="25"/>
@@ -1514,10 +1514,10 @@
         <v>52</v>
       </c>
       <c r="C38" s="17">
-        <v>12089</v>
+        <v>15048</v>
       </c>
       <c r="D38" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5B36D0-8039-3946-9D44-AD1DE4549FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437DD077-B9B5-8844-A569-A452A767472F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1704,10 +1704,10 @@
         <v>73</v>
       </c>
       <c r="C49" s="17">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="D49" s="17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437DD077-B9B5-8844-A569-A452A767472F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BD560-E71D-DB48-AEF0-C5C1EFC8411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -854,7 +854,7 @@
     <col min="5" max="5" width="5.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="67.5" customWidth="1"/>
+    <col min="8" max="8" width="83.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
@@ -903,13 +903,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="18">
-        <v>35997</v>
+        <v>32935</v>
       </c>
       <c r="D3" s="18">
-        <v>39000</v>
+        <v>36000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="25"/>
@@ -923,13 +923,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="18">
-        <v>32935</v>
+        <v>35997</v>
       </c>
       <c r="D4" s="18">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="25"/>
@@ -998,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" s="19">
-        <v>45053</v>
+        <v>42018</v>
       </c>
       <c r="D8" s="19">
-        <v>48000</v>
+        <v>45000</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="25"/>
@@ -1015,32 +1015,29 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>22</v>
+      <c r="B9" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="19">
-        <v>47850</v>
+        <v>45053</v>
       </c>
       <c r="D9" s="19">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>28</v>
+      <c r="B10" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="19">
-        <v>42018</v>
+        <v>45005</v>
       </c>
       <c r="D10" s="19">
-        <v>45000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1048,13 +1045,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C11" s="19">
-        <v>45005</v>
+        <v>47850</v>
       </c>
       <c r="D11" s="19">
-        <v>48000</v>
+        <v>51000</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -1354,10 +1351,10 @@
         <v>43</v>
       </c>
       <c r="C29" s="17">
-        <v>9032</v>
+        <v>11793</v>
       </c>
       <c r="D29" s="17">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="25"/>
@@ -1985,13 +1982,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
+    <row r="65" spans="7:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BD560-E71D-DB48-AEF0-C5C1EFC8411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC596AB-064D-BE4F-9832-6071D679EACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1749,10 +1749,10 @@
         <v>76</v>
       </c>
       <c r="C52" s="17">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="D52" s="17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC596AB-064D-BE4F-9832-6071D679EACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561A0649-B435-7F41-857B-43C31ADB2AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -842,7 +842,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1279,10 +1279,10 @@
         <v>16</v>
       </c>
       <c r="C25" s="17">
-        <v>24586</v>
+        <v>26937</v>
       </c>
       <c r="D25" s="17">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="25"/>
@@ -1637,10 +1637,10 @@
         <v>69</v>
       </c>
       <c r="C45" s="17">
-        <v>0</v>
+        <v>1212</v>
       </c>
       <c r="D45" s="17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -1717,10 +1717,10 @@
         <v>74</v>
       </c>
       <c r="C50" s="17">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="D50" s="17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -1733,10 +1733,10 @@
         <v>75</v>
       </c>
       <c r="C51" s="17">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="D51" s="17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561A0649-B435-7F41-857B-43C31ADB2AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA8752A-19FC-8343-BD51-1D9667100825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -842,7 +842,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1669,10 +1669,10 @@
         <v>71</v>
       </c>
       <c r="C47" s="17">
-        <v>0</v>
+        <v>1063</v>
       </c>
       <c r="D47" s="17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA8752A-19FC-8343-BD51-1D9667100825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04072D93-557A-CF47-B763-3B5228198497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1619,10 +1619,10 @@
         <v>58</v>
       </c>
       <c r="C44" s="17">
-        <v>8665</v>
+        <v>11966</v>
       </c>
       <c r="D44" s="17">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04072D93-557A-CF47-B763-3B5228198497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8CAA9D-4310-F04A-BA7D-7072B9A27EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1315,10 +1315,10 @@
         <v>41</v>
       </c>
       <c r="C27" s="17">
-        <v>24096</v>
+        <v>26660</v>
       </c>
       <c r="D27" s="17">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="25"/>
@@ -1475,10 +1475,10 @@
         <v>50</v>
       </c>
       <c r="C36" s="17">
-        <v>11898</v>
+        <v>15053</v>
       </c>
       <c r="D36" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8CAA9D-4310-F04A-BA7D-7072B9A27EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8240E76-C0D6-354E-9A5F-1A6D64DBE88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -882,11 +882,11 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>7</v>
+      <c r="B2" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="18">
-        <v>32751</v>
+        <v>32935</v>
       </c>
       <c r="D2" s="18">
         <v>36000</v>
@@ -902,14 +902,14 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>19</v>
+      <c r="B3" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="18">
-        <v>32935</v>
+        <v>35916</v>
       </c>
       <c r="D3" s="18">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8240E76-C0D6-354E-9A5F-1A6D64DBE88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB76C622-7112-CD43-B151-246E740945B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1141,10 +1141,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="17">
-        <v>21340</v>
+        <v>24120</v>
       </c>
       <c r="D17" s="17">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1439,10 +1439,10 @@
         <v>48</v>
       </c>
       <c r="C34" s="17">
-        <v>12097</v>
+        <v>15063</v>
       </c>
       <c r="D34" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB76C622-7112-CD43-B151-246E740945B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB9C18-A3C6-494A-B0AB-167A72C1AA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -842,7 +842,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1367,10 +1367,10 @@
         <v>44</v>
       </c>
       <c r="C30" s="17">
-        <v>12075</v>
+        <v>14903</v>
       </c>
       <c r="D30" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="25"/>
@@ -1583,10 +1583,10 @@
         <v>56</v>
       </c>
       <c r="C42" s="17">
-        <v>9260</v>
+        <v>11926</v>
       </c>
       <c r="D42" s="17">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB9C18-A3C6-494A-B0AB-167A72C1AA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB27774-7441-4A4A-AB82-41C18D32CD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -926,10 +926,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="18">
-        <v>35997</v>
+        <v>38973</v>
       </c>
       <c r="D4" s="18">
-        <v>39000</v>
+        <v>42000</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="25"/>
@@ -1421,10 +1421,10 @@
         <v>47</v>
       </c>
       <c r="C33" s="17">
-        <v>5995</v>
+        <v>8986</v>
       </c>
       <c r="D33" s="17">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB27774-7441-4A4A-AB82-41C18D32CD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CE344C-AD92-214A-A622-2E672202F7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1019,10 +1019,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="19">
-        <v>45053</v>
+        <v>48095</v>
       </c>
       <c r="D9" s="19">
-        <v>48000</v>
+        <v>51000</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -1092,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="17">
-        <v>11915</v>
+        <v>14916</v>
       </c>
       <c r="D14" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="25" t="s">

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CE344C-AD92-214A-A622-2E672202F7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CFF37A-6966-DA44-B046-87191027FD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1457,10 +1457,10 @@
         <v>49</v>
       </c>
       <c r="C35" s="17">
-        <v>3093</v>
+        <v>8659</v>
       </c>
       <c r="D35" s="17">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="25"/>
@@ -1653,10 +1653,10 @@
         <v>70</v>
       </c>
       <c r="C46" s="17">
-        <v>0</v>
+        <v>1155</v>
       </c>
       <c r="D46" s="17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -1701,10 +1701,10 @@
         <v>73</v>
       </c>
       <c r="C49" s="17">
-        <v>1034</v>
+        <v>3020</v>
       </c>
       <c r="D49" s="17">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CFF37A-6966-DA44-B046-87191027FD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817FD61B-6ECF-EC4C-B01E-1B724BD98917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -842,7 +842,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1547,10 +1547,10 @@
         <v>54</v>
       </c>
       <c r="C40" s="17">
-        <v>9022</v>
+        <v>12024</v>
       </c>
       <c r="D40" s="17">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817FD61B-6ECF-EC4C-B01E-1B724BD98917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143CBDBA-1A39-9C46-9A62-A92D7D2C15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1077,10 +1077,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="17">
-        <v>9120</v>
+        <v>12047</v>
       </c>
       <c r="D13" s="17">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1637,10 +1637,10 @@
         <v>69</v>
       </c>
       <c r="C45" s="17">
-        <v>1212</v>
+        <v>3136</v>
       </c>
       <c r="D45" s="17">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143CBDBA-1A39-9C46-9A62-A92D7D2C15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEFF937-88F5-6243-9DFC-83A55660F244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1001,10 +1001,10 @@
         <v>28</v>
       </c>
       <c r="C8" s="19">
-        <v>42018</v>
+        <v>44680</v>
       </c>
       <c r="D8" s="19">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="25"/>
@@ -1529,10 +1529,10 @@
         <v>53</v>
       </c>
       <c r="C39" s="17">
-        <v>3011</v>
+        <v>12126</v>
       </c>
       <c r="D39" s="17">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEFF937-88F5-6243-9DFC-83A55660F244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE92A90D-891B-5944-8244-FB767020E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1601,10 +1601,10 @@
         <v>57</v>
       </c>
       <c r="C43" s="17">
-        <v>14954</v>
+        <v>18069</v>
       </c>
       <c r="D43" s="17">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE92A90D-891B-5944-8244-FB767020E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B7C86C-686E-E44D-B415-40F815EE7D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1619,10 +1619,10 @@
         <v>58</v>
       </c>
       <c r="C44" s="17">
-        <v>11966</v>
+        <v>15042</v>
       </c>
       <c r="D44" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B7C86C-686E-E44D-B415-40F815EE7D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC38DF4-A12D-E341-AB0A-F26BB863AA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1175,10 +1175,10 @@
         <v>27</v>
       </c>
       <c r="C19" s="17">
-        <v>26833</v>
+        <v>29780</v>
       </c>
       <c r="D19" s="17">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC38DF4-A12D-E341-AB0A-F26BB863AA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C4EE85-0AF0-2743-A059-6D0056021CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1685,10 +1685,10 @@
         <v>72</v>
       </c>
       <c r="C48" s="17">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="D48" s="17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C4EE85-0AF0-2743-A059-6D0056021CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1922740F-434B-904F-A2BA-AB685582BBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1333,10 +1333,10 @@
         <v>42</v>
       </c>
       <c r="C28" s="17">
-        <v>12070</v>
+        <v>14830</v>
       </c>
       <c r="D28" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="25"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1922740F-434B-904F-A2BA-AB685582BBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4EBEC0-DBEB-2243-B11B-4E7E3E2137A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -839,10 +839,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1781,10 +1781,10 @@
         <v>77</v>
       </c>
       <c r="C54" s="17">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D54" s="17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4EBEC0-DBEB-2243-B11B-4E7E3E2137A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED09F4-EE81-B94B-9C21-3FC379C39736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>No.</t>
   </si>
@@ -82,9 +82,6 @@
     <t>LV14DLGP</t>
   </si>
   <si>
-    <t>LV14HZGP</t>
-  </si>
-  <si>
     <t>LV14GBGP</t>
   </si>
   <si>
@@ -97,21 +94,9 @@
     <t>LP28RXGP</t>
   </si>
   <si>
-    <t>LP28SGGP</t>
-  </si>
-  <si>
-    <t>KF56XKGP</t>
-  </si>
-  <si>
     <t>KL21XDGP</t>
   </si>
   <si>
-    <t>KL21TTGP</t>
-  </si>
-  <si>
-    <t>KL21SPGP</t>
-  </si>
-  <si>
     <t>KP13RNGP</t>
   </si>
   <si>
@@ -136,27 +121,15 @@
     <t>KR93JMGP</t>
   </si>
   <si>
-    <t>KS28HSGP</t>
-  </si>
-  <si>
     <t>KS28KZGP</t>
   </si>
   <si>
     <t>KS49PKGP</t>
   </si>
   <si>
-    <t>KS45FRGP</t>
-  </si>
-  <si>
-    <t>KS92FCGP</t>
-  </si>
-  <si>
     <t>KS92GWGP</t>
   </si>
   <si>
-    <t>KS28KKGP</t>
-  </si>
-  <si>
     <t>MB96XFGP</t>
   </si>
   <si>
@@ -214,30 +187,12 @@
     <t>MK81DTGP</t>
   </si>
   <si>
-    <t>1. Steering Stem needs bearings. 2. Ignition faulty open to all keys</t>
-  </si>
-  <si>
-    <t>LD90DTGP</t>
-  </si>
-  <si>
-    <t>1. High fuel &amp; Oil consumption</t>
-  </si>
-  <si>
     <t>Vehicle is still in the fleet and approaching high mileage</t>
   </si>
   <si>
     <t>Recommended for Retirement</t>
   </si>
   <si>
-    <t>1. Steering stem skew, was never replaced during accident repair</t>
-  </si>
-  <si>
-    <t>1. Written Off</t>
-  </si>
-  <si>
-    <t>1. Not Charging 2. Bike set aside by controller</t>
-  </si>
-  <si>
     <t xml:space="preserve">Was involved in accident and Front Fork was not replaced. It's skew </t>
   </si>
   <si>
@@ -271,10 +226,7 @@
     <t>MR01HXGP</t>
   </si>
   <si>
-    <t>Written off. Uplifted by insurance</t>
-  </si>
-  <si>
-    <t>Engine Oil Leak</t>
+    <t>Accident Write-Off</t>
   </si>
 </sst>
 </file>
@@ -356,13 +308,13 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,15 +437,6 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -495,11 +444,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -839,10 +789,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -872,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="F1" s="25"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
@@ -882,8 +832,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>19</v>
+      <c r="B2" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="18">
         <v>32935</v>
@@ -892,7 +842,7 @@
         <v>36000</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="25"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
         <v>6</v>
@@ -912,18 +862,18 @@
         <v>39000</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="25"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>17</v>
+      <c r="B4" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="18">
         <v>38973</v>
@@ -932,10 +882,10 @@
         <v>42000</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="25"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -943,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="18">
         <v>35771</v>
@@ -961,8 +911,8 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>29</v>
+      <c r="B6" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="18">
         <v>38967</v>
@@ -971,7 +921,7 @@
         <v>42000</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -980,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C7" s="18">
         <v>38901</v>
@@ -989,7 +939,7 @@
         <v>42000</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -998,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="19">
         <v>44680</v>
@@ -1007,7 +957,7 @@
         <v>48000</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="25"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -1031,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="19">
         <v>45005</v>
@@ -1045,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="19">
         <v>47850</v>
@@ -1098,8 +1048,8 @@
         <v>18000</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="25" t="s">
-        <v>67</v>
+      <c r="F14" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1154,7 +1104,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" s="17">
         <v>26964</v>
@@ -1163,7 +1113,7 @@
         <v>30000</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="25"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
@@ -1172,7 +1122,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C19" s="17">
         <v>29780</v>
@@ -1188,7 +1138,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="17">
         <v>18006</v>
@@ -1204,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C21" s="17">
         <v>12052</v>
@@ -1213,7 +1163,7 @@
         <v>15000</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="25"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
@@ -1222,7 +1172,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C22" s="17">
         <v>14758</v>
@@ -1231,7 +1181,7 @@
         <v>18000</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -1240,7 +1190,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C23" s="17">
         <v>29847</v>
@@ -1249,7 +1199,7 @@
         <v>33000</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
@@ -1258,7 +1208,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17">
         <v>29870</v>
@@ -1267,7 +1217,7 @@
         <v>33000</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
@@ -1276,7 +1226,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="17">
         <v>26937</v>
@@ -1285,7 +1235,7 @@
         <v>30000</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
@@ -1294,7 +1244,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C26" s="17">
         <v>15043</v>
@@ -1303,7 +1253,7 @@
         <v>18000</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -1312,7 +1262,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C27" s="17">
         <v>26660</v>
@@ -1321,7 +1271,7 @@
         <v>30000</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
@@ -1330,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C28" s="17">
         <v>14830</v>
@@ -1339,7 +1289,7 @@
         <v>18000</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
@@ -1348,7 +1298,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C29" s="17">
         <v>11793</v>
@@ -1357,14 +1307,14 @@
         <v>15000</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C30" s="17">
         <v>14903</v>
@@ -1373,7 +1323,7 @@
         <v>18000</v>
       </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
@@ -1382,7 +1332,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C31" s="17">
         <v>3024</v>
@@ -1391,7 +1341,7 @@
         <v>6000</v>
       </c>
       <c r="E31" s="15"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -1400,7 +1350,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C32" s="17">
         <v>18033</v>
@@ -1409,7 +1359,7 @@
         <v>21000</v>
       </c>
       <c r="E32" s="15"/>
-      <c r="F32" s="25"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -1418,7 +1368,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C33" s="17">
         <v>8986</v>
@@ -1427,7 +1377,7 @@
         <v>12000</v>
       </c>
       <c r="E33" s="15"/>
-      <c r="F33" s="25"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
@@ -1436,7 +1386,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C34" s="17">
         <v>15063</v>
@@ -1445,7 +1395,7 @@
         <v>18000</v>
       </c>
       <c r="E34" s="15"/>
-      <c r="F34" s="25"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
@@ -1454,7 +1404,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C35" s="17">
         <v>8659</v>
@@ -1463,7 +1413,7 @@
         <v>12000</v>
       </c>
       <c r="E35" s="15"/>
-      <c r="F35" s="25"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
@@ -1472,7 +1422,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C36" s="17">
         <v>15053</v>
@@ -1481,7 +1431,7 @@
         <v>18000</v>
       </c>
       <c r="E36" s="15"/>
-      <c r="F36" s="25"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
@@ -1490,7 +1440,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C37" s="17">
         <v>11991</v>
@@ -1499,7 +1449,7 @@
         <v>15000</v>
       </c>
       <c r="E37" s="15"/>
-      <c r="F37" s="25"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
@@ -1508,7 +1458,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C38" s="17">
         <v>15048</v>
@@ -1517,7 +1467,7 @@
         <v>18000</v>
       </c>
       <c r="E38" s="15"/>
-      <c r="F38" s="25"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
@@ -1526,7 +1476,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C39" s="17">
         <v>12126</v>
@@ -1535,7 +1485,7 @@
         <v>15000</v>
       </c>
       <c r="E39" s="15"/>
-      <c r="F39" s="25"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
@@ -1544,7 +1494,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C40" s="17">
         <v>12024</v>
@@ -1553,7 +1503,7 @@
         <v>15000</v>
       </c>
       <c r="E40" s="15"/>
-      <c r="F40" s="25"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
@@ -1562,7 +1512,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C41" s="17">
         <v>8433</v>
@@ -1571,7 +1521,7 @@
         <v>12000</v>
       </c>
       <c r="E41" s="15"/>
-      <c r="F41" s="25"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
@@ -1580,7 +1530,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C42" s="17">
         <v>11926</v>
@@ -1589,7 +1539,7 @@
         <v>15000</v>
       </c>
       <c r="E42" s="15"/>
-      <c r="F42" s="25"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
@@ -1598,7 +1548,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C43" s="17">
         <v>18069</v>
@@ -1607,7 +1557,7 @@
         <v>21000</v>
       </c>
       <c r="E43" s="15"/>
-      <c r="F43" s="25"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
@@ -1616,7 +1566,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C44" s="17">
         <v>15042</v>
@@ -1625,7 +1575,7 @@
         <v>18000</v>
       </c>
       <c r="E44" s="15"/>
-      <c r="F44" s="25"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
@@ -1634,7 +1584,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C45" s="17">
         <v>3136</v>
@@ -1650,7 +1600,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C46" s="17">
         <v>1155</v>
@@ -1666,7 +1616,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C47" s="17">
         <v>1063</v>
@@ -1682,7 +1632,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C48" s="17">
         <v>975</v>
@@ -1698,7 +1648,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C49" s="17">
         <v>3020</v>
@@ -1714,7 +1664,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C50" s="17">
         <v>1008</v>
@@ -1730,10 +1680,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C51" s="17">
-        <v>982</v>
+        <v>1010</v>
       </c>
       <c r="D51" s="17">
         <v>3000</v>
@@ -1746,13 +1696,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C52" s="17">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="D52" s="17">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -1762,13 +1712,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C53" s="17">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D53" s="17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -1777,216 +1727,39 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="17">
-        <v>1005</v>
-      </c>
-      <c r="D54" s="17">
+      <c r="B54" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="25">
+        <v>982</v>
+      </c>
+      <c r="D54" s="25">
         <v>3000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="22">
-        <v>9017</v>
-      </c>
-      <c r="D55" s="22">
-        <v>12000</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="22">
-        <v>51013</v>
-      </c>
-      <c r="D56" s="22">
-        <v>54000</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="22">
-        <v>51073</v>
-      </c>
-      <c r="D57" s="22">
-        <v>54000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="22">
-        <v>41900</v>
-      </c>
-      <c r="D58" s="22">
-        <v>45000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="22">
-        <v>44686</v>
-      </c>
-      <c r="D59" s="22">
-        <v>48000</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="25"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="22">
-        <v>57078</v>
-      </c>
-      <c r="D60" s="22">
-        <v>60000</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" s="25"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="22">
-        <v>51000</v>
-      </c>
-      <c r="D61" s="22">
-        <v>54000</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="22">
-        <v>47816</v>
-      </c>
-      <c r="D62" s="22">
-        <v>51000</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="27">
-        <v>47352</v>
-      </c>
-      <c r="D63" s="27">
-        <v>51000</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="22">
-        <v>30132</v>
-      </c>
-      <c r="D64" s="22">
-        <v>33000</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="7:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="65" x14ac:dyDescent="0.35"/>
+    <row r="66" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED09F4-EE81-B94B-9C21-3FC379C39736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CC9777-D5EA-6145-BCA1-2B6ABCC67F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>No.</t>
   </si>
@@ -789,10 +789,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -836,10 +836,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="18">
-        <v>32935</v>
+        <v>36148</v>
       </c>
       <c r="D2" s="18">
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="22"/>
@@ -1060,10 +1060,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="17">
-        <v>14679</v>
+        <v>17822</v>
       </c>
       <c r="D15" s="17">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1075,10 +1075,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="17">
-        <v>17998</v>
+        <v>21012</v>
       </c>
       <c r="D16" s="17">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1461,10 +1461,10 @@
         <v>43</v>
       </c>
       <c r="C38" s="17">
-        <v>15048</v>
+        <v>18027</v>
       </c>
       <c r="D38" s="17">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="22"/>
@@ -1667,10 +1667,10 @@
         <v>59</v>
       </c>
       <c r="C50" s="17">
-        <v>1008</v>
+        <v>3082</v>
       </c>
       <c r="D50" s="17">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -1696,13 +1696,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C52" s="17">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D52" s="17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -1711,44 +1711,29 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="17">
-        <v>1005</v>
-      </c>
-      <c r="D53" s="17">
+      <c r="B53" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="25">
+        <v>982</v>
+      </c>
+      <c r="D53" s="25">
         <v>3000</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="25">
-        <v>982</v>
-      </c>
-      <c r="D54" s="25">
-        <v>3000</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>63</v>
-      </c>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35"/>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CC9777-D5EA-6145-BCA1-2B6ABCC67F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AE40B2-CABB-8741-B7AF-65CBCCC4008D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -789,10 +789,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1265,10 +1265,10 @@
         <v>32</v>
       </c>
       <c r="C27" s="17">
-        <v>26660</v>
+        <v>29279</v>
       </c>
       <c r="D27" s="17">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="22"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AE40B2-CABB-8741-B7AF-65CBCCC4008D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF66721-2E9E-4140-A8BA-0BBA2A65053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -789,10 +789,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -998,10 +998,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="19">
-        <v>47850</v>
+        <v>50950</v>
       </c>
       <c r="D11" s="19">
-        <v>51000</v>
+        <v>53000</v>
       </c>
       <c r="E11" s="3"/>
     </row>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF66721-2E9E-4140-A8BA-0BBA2A65053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3469C84-40D5-964C-8725-63316D52361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,7 +792,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1683,10 +1683,10 @@
         <v>61</v>
       </c>
       <c r="C51" s="17">
-        <v>1010</v>
+        <v>3079</v>
       </c>
       <c r="D51" s="17">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3469C84-40D5-964C-8725-63316D52361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4CA6CC-CEF4-9C43-B101-80D27CFBE009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -789,10 +789,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1107,10 +1107,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="17">
-        <v>26964</v>
+        <v>29439</v>
       </c>
       <c r="D18" s="17">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="22"/>
@@ -1533,10 +1533,10 @@
         <v>47</v>
       </c>
       <c r="C42" s="17">
-        <v>11926</v>
+        <v>14527</v>
       </c>
       <c r="D42" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="22"/>
@@ -1619,10 +1619,10 @@
         <v>56</v>
       </c>
       <c r="C47" s="17">
-        <v>1063</v>
+        <v>3093</v>
       </c>
       <c r="D47" s="17">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4CA6CC-CEF4-9C43-B101-80D27CFBE009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA1FE0F-F838-1742-94A6-09B94977B576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -789,10 +789,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1091,10 +1091,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="17">
-        <v>24120</v>
+        <v>27097</v>
       </c>
       <c r="D17" s="17">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA1FE0F-F838-1742-94A6-09B94977B576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73D07CC-C90D-EB46-85EA-C25E85C863A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -789,10 +789,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1247,10 +1247,10 @@
         <v>31</v>
       </c>
       <c r="C26" s="17">
-        <v>15043</v>
+        <v>17985</v>
       </c>
       <c r="D26" s="17">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="22"/>
@@ -1317,10 +1317,10 @@
         <v>35</v>
       </c>
       <c r="C30" s="17">
-        <v>14903</v>
+        <v>17997</v>
       </c>
       <c r="D30" s="17">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="22"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73D07CC-C90D-EB46-85EA-C25E85C863A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892B2F4F-A76B-CF41-9E2D-4A9370756AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>No.</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Accident Write-Off</t>
+  </si>
+  <si>
+    <t>Needs Eng. Hanger rubber bush (11102-M9Q-3000)  X2</t>
   </si>
 </sst>
 </file>
@@ -789,10 +792,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1004,6 +1007,9 @@
         <v>53000</v>
       </c>
       <c r="E11" s="3"/>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -1301,10 +1307,10 @@
         <v>34</v>
       </c>
       <c r="C29" s="17">
-        <v>11793</v>
+        <v>14927</v>
       </c>
       <c r="D29" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="22"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892B2F4F-A76B-CF41-9E2D-4A9370756AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F550C976-BEF0-1047-AB90-BEE089868E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1395,10 +1395,10 @@
         <v>39</v>
       </c>
       <c r="C34" s="17">
-        <v>15063</v>
+        <v>17912</v>
       </c>
       <c r="D34" s="17">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="22"/>
@@ -1503,10 +1503,10 @@
         <v>45</v>
       </c>
       <c r="C40" s="17">
-        <v>12024</v>
+        <v>14793</v>
       </c>
       <c r="D40" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="22"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F550C976-BEF0-1047-AB90-BEE089868E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4015F9D6-0CA5-A445-8161-74914117A5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>No.</t>
   </si>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -972,12 +972,15 @@
         <v>14</v>
       </c>
       <c r="C9" s="19">
-        <v>48095</v>
+        <v>51080</v>
       </c>
       <c r="D9" s="19">
-        <v>51000</v>
+        <v>54000</v>
       </c>
       <c r="E9" s="3"/>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4015F9D6-0CA5-A445-8161-74914117A5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B7C54-622B-4A43-8EBB-EF400FC13EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -193,9 +193,6 @@
     <t>Recommended for Retirement</t>
   </si>
   <si>
-    <t xml:space="preserve">Was involved in accident and Front Fork was not replaced. It's skew </t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>Needs Eng. Hanger rubber bush (11102-M9Q-3000)  X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steering Stem was never replaced during accident repair. </t>
   </si>
 </sst>
 </file>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -924,7 +924,9 @@
         <v>42000</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -979,7 +981,7 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1011,7 +1013,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1057,9 +1059,7 @@
         <v>18000</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -1593,7 +1593,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="17">
         <v>3136</v>
@@ -1609,7 +1609,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="17">
         <v>1155</v>
@@ -1625,7 +1625,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="17">
         <v>3093</v>
@@ -1641,7 +1641,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="17">
         <v>975</v>
@@ -1657,7 +1657,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="17">
         <v>3020</v>
@@ -1673,7 +1673,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="17">
         <v>3082</v>
@@ -1689,7 +1689,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="17">
         <v>3079</v>
@@ -1705,7 +1705,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="17">
         <v>1005</v>
@@ -1721,7 +1721,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="25">
         <v>982</v>
@@ -1730,10 +1730,10 @@
         <v>3000</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B7C54-622B-4A43-8EBB-EF400FC13EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24C62E-D1F0-3441-AD54-8935EC20BD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -789,13 +789,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD8F41E-515C-324C-BF16-60C17361A01E}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -875,17 +875,16 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>16</v>
+      <c r="B4" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="18">
-        <v>38973</v>
+        <v>35771</v>
       </c>
       <c r="D4" s="18">
-        <v>42000</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="22"/>
+        <v>39000</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
         <v>51</v>
@@ -895,16 +894,19 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>20</v>
+      <c r="B5" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="18">
-        <v>35771</v>
+        <v>38967</v>
       </c>
       <c r="D5" s="18">
-        <v>39000</v>
-      </c>
-      <c r="E5" s="12"/>
+        <v>42000</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="G5" s="13"/>
       <c r="H5" s="7" t="s">
         <v>9</v>
@@ -914,19 +916,17 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>24</v>
+      <c r="B6" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="18">
-        <v>38967</v>
+        <v>38901</v>
       </c>
       <c r="D6" s="18">
         <v>42000</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="F6" s="22"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -934,14 +934,14 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="18">
-        <v>38901</v>
-      </c>
-      <c r="D7" s="18">
-        <v>42000</v>
+      <c r="B7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="19">
+        <v>41904</v>
+      </c>
+      <c r="D7" s="19">
+        <v>45000</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="22"/>
@@ -983,6 +983,8 @@
       <c r="F9" t="s">
         <v>63</v>
       </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -1089,8 +1091,6 @@
       <c r="D16" s="17">
         <v>24000</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
@@ -1150,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="17">
-        <v>18006</v>
+        <v>20985</v>
       </c>
       <c r="D20" s="17">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1317,6 +1317,8 @@
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="22"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
@@ -1333,8 +1335,6 @@
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
@@ -1434,10 +1434,10 @@
         <v>41</v>
       </c>
       <c r="C36" s="17">
-        <v>15053</v>
+        <v>18101</v>
       </c>
       <c r="D36" s="17">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="22"/>
@@ -1738,11 +1738,14 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35"/>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35"/>
@@ -1754,6 +1757,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.35"/>
     <row r="65" x14ac:dyDescent="0.35"/>
     <row r="66" x14ac:dyDescent="0.35"/>
+    <row r="67" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24C62E-D1F0-3441-AD54-8935EC20BD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A1997-24AB-9C44-97E2-FE8C115357A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1578,10 +1578,10 @@
         <v>49</v>
       </c>
       <c r="C44" s="17">
-        <v>15042</v>
+        <v>18119</v>
       </c>
       <c r="D44" s="17">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="22"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A1997-24AB-9C44-97E2-FE8C115357A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027F6139-699F-104C-A3A6-29E633119B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1238,10 +1238,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="17">
-        <v>26937</v>
+        <v>29918</v>
       </c>
       <c r="D25" s="17">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="22"/>
@@ -1560,10 +1560,10 @@
         <v>48</v>
       </c>
       <c r="C43" s="17">
-        <v>18069</v>
+        <v>21061</v>
       </c>
       <c r="D43" s="17">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="22"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027F6139-699F-104C-A3A6-29E633119B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CA004-8C70-044A-82DF-B2AA17186ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -789,13 +789,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD8F41E-515C-324C-BF16-60C17361A01E}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -835,14 +835,14 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="18">
-        <v>36148</v>
-      </c>
-      <c r="D2" s="18">
-        <v>39000</v>
+      <c r="B2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="19">
+        <v>41904</v>
+      </c>
+      <c r="D2" s="19">
+        <v>45000</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="22"/>
@@ -855,14 +855,14 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="18">
-        <v>35916</v>
-      </c>
-      <c r="D3" s="18">
-        <v>39000</v>
+      <c r="B3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="19">
+        <v>44680</v>
+      </c>
+      <c r="D3" s="19">
+        <v>48000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="22"/>
@@ -875,16 +875,19 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="18">
-        <v>35771</v>
-      </c>
-      <c r="D4" s="18">
-        <v>39000</v>
-      </c>
-      <c r="E4" s="12"/>
+      <c r="B4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="19">
+        <v>51080</v>
+      </c>
+      <c r="D4" s="19">
+        <v>54000</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
         <v>51</v>
@@ -894,18 +897,14 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="18">
-        <v>38967</v>
-      </c>
-      <c r="D5" s="18">
-        <v>42000</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="22" t="s">
-        <v>64</v>
+      <c r="B5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="19">
+        <v>48003</v>
+      </c>
+      <c r="D5" s="19">
+        <v>51000</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="7" t="s">
@@ -916,17 +915,19 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="18">
-        <v>38901</v>
-      </c>
-      <c r="D6" s="18">
-        <v>42000</v>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="19">
+        <v>50950</v>
+      </c>
+      <c r="D6" s="19">
+        <v>53000</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="22"/>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -934,14 +935,14 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="19">
-        <v>41904</v>
-      </c>
-      <c r="D7" s="19">
-        <v>45000</v>
+      <c r="B7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="18">
+        <v>36148</v>
+      </c>
+      <c r="D7" s="18">
+        <v>39000</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="22"/>
@@ -952,14 +953,14 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="19">
-        <v>44680</v>
-      </c>
-      <c r="D8" s="19">
-        <v>48000</v>
+      <c r="B8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18">
+        <v>39172</v>
+      </c>
+      <c r="D8" s="18">
+        <v>42000</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="22"/>
@@ -970,19 +971,16 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="19">
-        <v>51080</v>
-      </c>
-      <c r="D9" s="19">
-        <v>54000</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
+      <c r="B9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="18">
+        <v>35771</v>
+      </c>
+      <c r="D9" s="18">
+        <v>39000</v>
+      </c>
+      <c r="E9" s="12"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
@@ -990,33 +988,39 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="19">
-        <v>45005</v>
-      </c>
-      <c r="D10" s="19">
-        <v>48000</v>
-      </c>
+      <c r="B10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="18">
+        <v>38967</v>
+      </c>
+      <c r="D10" s="18">
+        <v>42000</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="19">
-        <v>50950</v>
-      </c>
-      <c r="D11" s="19">
-        <v>53000</v>
+      <c r="B11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="18">
+        <v>38901</v>
+      </c>
+      <c r="D11" s="18">
+        <v>42000</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -1166,10 +1170,10 @@
         <v>25</v>
       </c>
       <c r="C21" s="17">
-        <v>12052</v>
+        <v>14692</v>
       </c>
       <c r="D21" s="17">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="22"/>
@@ -1738,26 +1742,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35"/>
-    <row r="65" x14ac:dyDescent="0.35"/>
-    <row r="66" x14ac:dyDescent="0.35"/>
-    <row r="67" x14ac:dyDescent="0.35"/>
+    <row r="71" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CA004-8C70-044A-82DF-B2AA17186ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFC3091-8646-DE43-8A8A-E1BE1DBD2314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1224,10 +1224,10 @@
         <v>29</v>
       </c>
       <c r="C24" s="17">
-        <v>29870</v>
+        <v>32993</v>
       </c>
       <c r="D24" s="17">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="22"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFC3091-8646-DE43-8A8A-E1BE1DBD2314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC9ED9-D156-034A-9CBC-3C170E5D1E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -792,10 +792,10 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1616,10 +1616,10 @@
         <v>54</v>
       </c>
       <c r="C46" s="17">
-        <v>1155</v>
+        <v>2954</v>
       </c>
       <c r="D46" s="17">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC9ED9-D156-034A-9CBC-3C170E5D1E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB632F1-0544-E94B-8C65-5C36E40D29CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -383,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -440,7 +440,6 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -789,13 +788,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD8F41E-515C-324C-BF16-60C17361A01E}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -825,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="F1" s="22"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
@@ -845,7 +844,7 @@
         <v>45000</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
         <v>6</v>
@@ -865,7 +864,7 @@
         <v>48000</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="22"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9" t="s">
         <v>50</v>
@@ -935,17 +934,19 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="18">
-        <v>36148</v>
-      </c>
-      <c r="D7" s="18">
-        <v>39000</v>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19">
+        <v>41969</v>
+      </c>
+      <c r="D7" s="19">
+        <v>45000</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
@@ -953,17 +954,17 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>7</v>
+      <c r="B8" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="18">
-        <v>39172</v>
+        <v>36148</v>
       </c>
       <c r="D8" s="18">
-        <v>42000</v>
+        <v>39000</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
@@ -972,15 +973,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C9" s="18">
-        <v>35771</v>
+        <v>39172</v>
       </c>
       <c r="D9" s="18">
-        <v>39000</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>42000</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
@@ -988,19 +990,16 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>24</v>
+      <c r="B10" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="18">
-        <v>38967</v>
+        <v>35771</v>
       </c>
       <c r="D10" s="18">
-        <v>42000</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="22" t="s">
-        <v>64</v>
-      </c>
+        <v>39000</v>
+      </c>
+      <c r="E10" s="12"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -1018,7 +1017,7 @@
         <v>42000</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
@@ -1065,7 +1064,7 @@
         <v>18000</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -1126,7 +1125,7 @@
         <v>33000</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
@@ -1176,7 +1175,7 @@
         <v>18000</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
@@ -1194,7 +1193,7 @@
         <v>18000</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -1212,7 +1211,7 @@
         <v>33000</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
@@ -1230,7 +1229,7 @@
         <v>36000</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
@@ -1248,7 +1247,7 @@
         <v>33000</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
@@ -1266,7 +1265,7 @@
         <v>21000</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -1284,7 +1283,7 @@
         <v>33000</v>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
@@ -1302,7 +1301,7 @@
         <v>18000</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
@@ -1320,7 +1319,7 @@
         <v>18000</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
@@ -1338,7 +1337,7 @@
         <v>21000</v>
       </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="22"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
@@ -1354,7 +1353,7 @@
         <v>6000</v>
       </c>
       <c r="E31" s="15"/>
-      <c r="F31" s="22"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -1372,7 +1371,7 @@
         <v>21000</v>
       </c>
       <c r="E32" s="15"/>
-      <c r="F32" s="22"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -1390,7 +1389,7 @@
         <v>12000</v>
       </c>
       <c r="E33" s="15"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
@@ -1408,7 +1407,7 @@
         <v>21000</v>
       </c>
       <c r="E34" s="15"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
@@ -1426,7 +1425,7 @@
         <v>12000</v>
       </c>
       <c r="E35" s="15"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
@@ -1444,7 +1443,7 @@
         <v>21000</v>
       </c>
       <c r="E36" s="15"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
@@ -1462,7 +1461,7 @@
         <v>15000</v>
       </c>
       <c r="E37" s="15"/>
-      <c r="F37" s="22"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
@@ -1480,7 +1479,7 @@
         <v>21000</v>
       </c>
       <c r="E38" s="15"/>
-      <c r="F38" s="22"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
@@ -1498,7 +1497,7 @@
         <v>15000</v>
       </c>
       <c r="E39" s="15"/>
-      <c r="F39" s="22"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
@@ -1516,7 +1515,7 @@
         <v>18000</v>
       </c>
       <c r="E40" s="15"/>
-      <c r="F40" s="22"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
@@ -1534,7 +1533,7 @@
         <v>12000</v>
       </c>
       <c r="E41" s="15"/>
-      <c r="F41" s="22"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
@@ -1552,7 +1551,7 @@
         <v>18000</v>
       </c>
       <c r="E42" s="15"/>
-      <c r="F42" s="22"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
@@ -1570,7 +1569,7 @@
         <v>24000</v>
       </c>
       <c r="E43" s="15"/>
-      <c r="F43" s="22"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
@@ -1588,7 +1587,7 @@
         <v>21000</v>
       </c>
       <c r="E44" s="15"/>
-      <c r="F44" s="22"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
@@ -1724,25 +1723,27 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="24">
         <v>982</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="24">
         <v>3000</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="22" t="s">
         <v>62</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35"/>
     <row r="71" x14ac:dyDescent="0.35"/>
+    <row r="72" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB632F1-0544-E94B-8C65-5C36E40D29CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04952D2A-7856-004B-BF28-CFEFC68FE97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -788,13 +788,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD8F41E-515C-324C-BF16-60C17361A01E}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -834,7 +834,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="19">
@@ -854,7 +854,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="19">
@@ -874,7 +874,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="19">
@@ -954,14 +954,14 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="18">
-        <v>36148</v>
-      </c>
-      <c r="D8" s="18">
-        <v>39000</v>
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="19">
+        <v>38901</v>
+      </c>
+      <c r="D8" s="19">
+        <v>42000</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="21"/>
@@ -972,14 +972,14 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>7</v>
+      <c r="B9" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="18">
-        <v>39172</v>
+        <v>36148</v>
       </c>
       <c r="D9" s="18">
-        <v>42000</v>
+        <v>39000</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="21"/>
@@ -991,15 +991,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C10" s="18">
-        <v>35771</v>
+        <v>39172</v>
       </c>
       <c r="D10" s="18">
-        <v>39000</v>
-      </c>
-      <c r="E10" s="12"/>
+        <v>42000</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
@@ -1008,16 +1009,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" s="18">
-        <v>38901</v>
+        <v>28988</v>
       </c>
       <c r="D11" s="18">
         <v>42000</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="12"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
@@ -1679,10 +1679,10 @@
         <v>58</v>
       </c>
       <c r="C50" s="17">
-        <v>3082</v>
+        <v>6025</v>
       </c>
       <c r="D50" s="17">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -1744,6 +1744,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.35"/>
     <row r="71" x14ac:dyDescent="0.35"/>
     <row r="72" x14ac:dyDescent="0.35"/>
+    <row r="73" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Fleet Mileage.xlsx
+++ b/Fleet Mileage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Business/scootdr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04952D2A-7856-004B-BF28-CFEFC68FE97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0CCB3A-20DE-6E47-B9E8-0CCA9D709C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="15500" xr2:uid="{DD62F603-65F5-B64B-908C-44E0CEED2B19}"/>
   </bookViews>
@@ -791,10 +791,10 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="27" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1473,10 +1473,10 @@
         <v>43</v>
       </c>
       <c r="C38" s="17">
-        <v>18027</v>
+        <v>21020</v>
       </c>
       <c r="D38" s="17">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="21"/>
